--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -6787,7 +6787,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="13" activeTab="13"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="643">
   <si>
     <t>enemyID</t>
   </si>
@@ -387,7 +387,7 @@
     <t>普攻伤害</t>
   </si>
   <si>
-    <t>伤害系数</t>
+    <t>机能伤害</t>
   </si>
   <si>
     <t>附加伤害</t>
@@ -1690,7 +1690,7 @@
 3:加成的数值）</t>
   </si>
   <si>
-    <t>1,5,1|13,1,3</t>
+    <t>14,5,1|13,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Moring_01</t>
@@ -1938,7 +1938,7 @@
     <t>1001,10</t>
   </si>
   <si>
-    <t>1001,5|1002,20</t>
+    <t>1001,5|1002,20|1003,30</t>
   </si>
   <si>
     <t>1002,10|1003,15</t>
@@ -1971,7 +1971,10 @@
     <t>1015,50</t>
   </si>
   <si>
-    <t>1012,1|1001,5</t>
+    <t>1012,1|1001,5|1002,5|1004,5</t>
+  </si>
+  <si>
+    <t>1001,5|1002,5|1003,5</t>
   </si>
   <si>
     <t>lotteryGrade</t>
@@ -3268,8 +3271,8 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A5:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3279,7 +3282,7 @@
     <col min="4" max="4" width="27.4416666666667" style="6" customWidth="1"/>
     <col min="5" max="5" width="29" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.5583333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="9" width="22.8833333333333" style="6" customWidth="1"/>
     <col min="10" max="10" width="24.5583333333333" style="20" customWidth="1"/>
@@ -3787,7 +3790,7 @@
         <v>180</v>
       </c>
       <c r="I11" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11" s="7">
         <v>4</v>
@@ -3834,7 +3837,7 @@
         <v>200</v>
       </c>
       <c r="I12" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="7">
         <v>4</v>
@@ -3881,7 +3884,7 @@
         <v>300</v>
       </c>
       <c r="I13" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="7">
         <v>5</v>
@@ -3928,7 +3931,7 @@
         <v>350</v>
       </c>
       <c r="I14" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="7">
         <v>5</v>
@@ -3975,7 +3978,7 @@
         <v>400</v>
       </c>
       <c r="I15" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="24">
         <v>5</v>
@@ -4069,7 +4072,7 @@
         <v>600</v>
       </c>
       <c r="I17" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" s="24">
         <v>7</v>
@@ -4116,7 +4119,7 @@
         <v>700</v>
       </c>
       <c r="I18" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" s="24">
         <v>7</v>
@@ -4163,7 +4166,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7">
         <v>7</v>
@@ -6786,7 +6789,7 @@
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7646,7 +7649,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8415,8 +8418,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8663,11 +8666,22 @@
         <v>2</v>
       </c>
       <c r="D17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="2:2">
-      <c r="B18" s="7"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" ht="14.25" spans="2:2">
       <c r="B19" s="7"/>
@@ -8797,7 +8811,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -8810,13 +8824,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -8838,7 +8852,7 @@
         <v>237</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -8857,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -8868,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C6">
         <v>0.18</v>
@@ -8879,7 +8893,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C7">
         <v>0.02</v>
@@ -8897,7 +8911,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8911,7 +8925,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>229</v>
@@ -8958,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
@@ -8969,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -8980,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6">
         <v>150</v>
@@ -8991,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
@@ -9002,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6">
         <v>250</v>
@@ -9013,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
         <v>300</v>
@@ -9024,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6">
         <v>350</v>
@@ -9035,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6">
         <v>400</v>
@@ -9046,7 +9060,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -9057,7 +9071,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
@@ -9068,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -9079,7 +9093,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>10</v>
@@ -9143,8 +9157,8 @@
   <sheetPr/>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9168,7 +9182,7 @@
     <col min="17" max="17" width="21.5583333333333" style="6" customWidth="1"/>
     <col min="18" max="18" width="24.8833333333333" style="6" customWidth="1"/>
     <col min="19" max="19" width="16.1083333333333" style="6" customWidth="1"/>
-    <col min="20" max="20" width="15.1083333333333" customWidth="1"/>
+    <col min="20" max="20" width="24.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -9711,11 +9725,60 @@
       </c>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+    <row r="10" ht="16.5" spans="1:22">
+      <c r="A10" s="7">
+        <v>201</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>100</v>
+      </c>
+      <c r="N10" s="6">
+        <v>200</v>
+      </c>
+      <c r="O10" s="6">
+        <v>500</v>
+      </c>
+      <c r="P10" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>60</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="22"/>
@@ -9922,16 +9985,16 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -9956,16 +10019,16 @@
         <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -10316,16 +10379,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -10344,13 +10407,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>290</v>
@@ -10480,7 +10543,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10493,16 +10556,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -10521,16 +10584,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -10798,16 +10861,16 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -10832,16 +10895,16 @@
         <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -10883,7 +10946,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>439</v>
@@ -10900,7 +10963,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>441</v>
@@ -10917,7 +10980,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C8" t="s">
         <v>443</v>
@@ -10934,7 +10997,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C9" t="s">
         <v>445</v>
@@ -10951,7 +11014,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C10" t="s">
         <v>447</v>
@@ -11053,7 +11116,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C16" t="s">
         <v>459</v>
@@ -11070,7 +11133,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C17" t="s">
         <v>461</v>
@@ -11708,7 +11771,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="D11" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13157,8 +13220,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -13814,7 +13877,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E34" sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_info" sheetId="1" r:id="rId1"/>
@@ -6837,7 +6837,7 @@
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7697,7 +7697,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8466,8 +8466,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8714,7 +8714,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:4">
@@ -9462,8 +9462,8 @@
   <sheetPr/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10007,7 +10007,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="6">
         <v>200</v>
@@ -10272,7 +10272,7 @@
         <v>120</v>
       </c>
       <c r="L14" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M14" s="6">
         <v>400</v>
@@ -10536,7 +10536,7 @@
         <v>140</v>
       </c>
       <c r="L19" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M19" s="6">
         <v>800</v>
@@ -10798,7 +10798,7 @@
         <v>160</v>
       </c>
       <c r="L24" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M24" s="6">
         <v>1200</v>
@@ -11062,7 +11062,7 @@
         <v>180</v>
       </c>
       <c r="L29" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="6">
         <v>1600</v>
@@ -14407,7 +14407,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B5:B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="657">
   <si>
     <t>enemyID</t>
   </si>
@@ -299,6 +299,9 @@
     <t>godName</t>
   </si>
   <si>
+    <t>propertyID</t>
+  </si>
+  <si>
     <t>godType</t>
   </si>
   <si>
@@ -750,9 +753,6 @@
     <t>limitCount</t>
   </si>
   <si>
-    <t>propertyID</t>
-  </si>
-  <si>
     <t>obtainMethod</t>
   </si>
   <si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>仙玉1</t>
+  </si>
+  <si>
+    <t>广告</t>
   </si>
   <si>
     <t>仙玉2</t>
@@ -4413,16 +4416,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>232</v>
@@ -4447,16 +4450,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>238</v>
@@ -4981,19 +4984,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -5015,19 +5018,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -5052,16 +5055,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5069,16 +5072,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5086,16 +5089,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5103,16 +5106,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5120,16 +5123,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5137,16 +5140,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5154,16 +5157,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5171,16 +5174,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5188,16 +5191,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5205,16 +5208,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5222,16 +5225,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5239,16 +5242,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5256,16 +5259,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5273,16 +5276,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5290,16 +5293,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5307,16 +5310,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5324,16 +5327,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5341,16 +5344,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5358,16 +5361,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5375,16 +5378,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5392,16 +5395,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5409,16 +5412,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5426,16 +5429,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5443,16 +5446,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5460,16 +5463,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5609,19 +5612,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -5643,19 +5646,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -5680,16 +5683,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5697,16 +5700,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5714,16 +5717,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5731,16 +5734,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5748,16 +5751,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5765,16 +5768,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5782,16 +5785,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5799,16 +5802,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5816,16 +5819,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5833,16 +5836,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5850,16 +5853,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5867,16 +5870,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5884,16 +5887,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5901,16 +5904,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5918,16 +5921,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5935,16 +5938,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5952,16 +5955,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5969,16 +5972,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5986,16 +5989,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6003,16 +6006,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6020,16 +6023,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6037,16 +6040,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6054,16 +6057,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6071,16 +6074,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6088,16 +6091,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6230,19 +6233,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -6264,19 +6267,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -6301,16 +6304,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6318,16 +6321,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6335,16 +6338,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6352,16 +6355,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6369,16 +6372,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6386,16 +6389,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6403,16 +6406,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6420,16 +6423,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6437,16 +6440,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6454,16 +6457,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6471,16 +6474,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6488,16 +6491,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6505,16 +6508,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6522,16 +6525,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6539,16 +6542,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6556,16 +6559,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6573,16 +6576,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6590,16 +6593,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6607,16 +6610,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6624,16 +6627,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6641,16 +6644,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6658,16 +6661,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6675,16 +6678,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6692,16 +6695,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" ht="13.95" customHeight="1" spans="1:5">
@@ -6709,16 +6712,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6852,16 +6855,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -6883,13 +6886,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>238</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -6911,11 +6914,11 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6923,11 +6926,11 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
@@ -7115,11 +7118,11 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7127,11 +7130,11 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7139,11 +7142,11 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7151,11 +7154,11 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7163,11 +7166,11 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7175,11 +7178,11 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7187,11 +7190,11 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7199,11 +7202,11 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7211,11 +7214,11 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7223,11 +7226,11 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7235,11 +7238,11 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7247,11 +7250,11 @@
         <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7259,11 +7262,11 @@
         <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7271,11 +7274,11 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7283,11 +7286,11 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7295,11 +7298,11 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7307,11 +7310,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7319,11 +7322,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C39"/>
       <c r="D39" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7331,11 +7334,11 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C40"/>
       <c r="D40" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7343,11 +7346,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C41"/>
       <c r="D41" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7355,11 +7358,11 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C42"/>
       <c r="D42" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7367,11 +7370,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C43"/>
       <c r="D43" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7379,11 +7382,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7391,11 +7394,11 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C45"/>
       <c r="D45" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7403,11 +7406,11 @@
         <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C46"/>
       <c r="D46" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7415,11 +7418,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7427,11 +7430,11 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7439,11 +7442,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7451,11 +7454,11 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C50"/>
       <c r="D50" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7463,11 +7466,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7475,11 +7478,11 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C52"/>
       <c r="D52" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7487,11 +7490,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C53"/>
       <c r="D53" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7499,11 +7502,11 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54"/>
       <c r="D54" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7511,11 +7514,11 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C55"/>
       <c r="D55" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7523,11 +7526,11 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7535,11 +7538,11 @@
         <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7547,11 +7550,11 @@
         <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C58"/>
       <c r="D58" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7559,11 +7562,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7571,11 +7574,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C60"/>
       <c r="D60" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7583,11 +7586,11 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7595,11 +7598,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7607,11 +7610,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7619,11 +7622,11 @@
         <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7631,11 +7634,11 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7643,11 +7646,11 @@
         <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C66"/>
       <c r="D66" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7655,11 +7658,11 @@
         <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7667,11 +7670,11 @@
         <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:4">
@@ -7679,10 +7682,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7696,8 +7699,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7711,22 +7714,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -7751,22 +7754,22 @@
     </row>
     <row r="3" ht="71.25" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -7800,13 +7803,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7823,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7840,13 +7843,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7860,13 +7863,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7880,13 +7883,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7900,13 +7903,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7920,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7940,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7960,13 +7963,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7980,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8000,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8020,13 +8023,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8040,13 +8043,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8060,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8080,13 +8083,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8100,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8120,13 +8123,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8140,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8160,13 +8163,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8180,13 +8183,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8200,13 +8203,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8220,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8240,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8260,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8280,13 +8283,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8300,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8320,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8340,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8360,13 +8363,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8380,13 +8383,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8400,13 +8403,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8481,16 +8484,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -8509,16 +8512,16 @@
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -8540,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -8554,7 +8557,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -8568,7 +8571,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -8582,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -8596,7 +8599,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -8610,7 +8613,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -8624,7 +8627,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
@@ -8638,7 +8641,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -8652,7 +8655,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -8666,7 +8669,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C14" s="8">
         <v>2</v>
@@ -8680,7 +8683,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -8694,7 +8697,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
@@ -8708,7 +8711,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
@@ -8722,7 +8725,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
@@ -8736,7 +8739,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C19" s="8">
         <v>2</v>
@@ -8750,7 +8753,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -8764,7 +8767,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
@@ -8778,7 +8781,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
@@ -8792,7 +8795,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -8806,7 +8809,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C24" s="8">
         <v>2</v>
@@ -8820,7 +8823,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
@@ -8834,7 +8837,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
@@ -8848,7 +8851,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
@@ -8862,7 +8865,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
@@ -8876,7 +8879,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
@@ -8890,7 +8893,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C30" s="8">
         <v>2</v>
@@ -8904,7 +8907,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -8918,7 +8921,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
@@ -8932,7 +8935,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C33" s="8">
         <v>2</v>
@@ -8946,7 +8949,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
@@ -8960,7 +8963,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
@@ -8974,7 +8977,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C37" s="8">
         <v>2</v>
@@ -9002,7 +9005,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
@@ -9036,16 +9039,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -9064,16 +9067,16 @@
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -9095,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -9129,13 +9132,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -9151,13 +9154,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>238</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9176,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -9187,7 +9190,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C6">
         <v>0.18</v>
@@ -9198,7 +9201,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C7">
         <v>0.02</v>
@@ -9230,13 +9233,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -9252,13 +9255,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9460,38 +9463,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.6666666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.4416666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="29" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5583333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.775" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" style="21" customWidth="1"/>
-    <col min="10" max="10" width="26.775" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.775" style="6" customWidth="1"/>
-    <col min="12" max="12" width="23.775" style="6" customWidth="1"/>
-    <col min="13" max="13" width="22.5583333333333" style="6" customWidth="1"/>
-    <col min="14" max="14" width="17.3333333333333" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.3333333333333" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.775" style="6" customWidth="1"/>
-    <col min="17" max="17" width="21.5583333333333" style="6" customWidth="1"/>
-    <col min="18" max="18" width="24.8833333333333" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.1083333333333" style="6" customWidth="1"/>
-    <col min="20" max="20" width="24.875" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="3" max="4" width="27.4416666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.5583333333333" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.8833333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5583333333333" style="21" customWidth="1"/>
+    <col min="11" max="11" width="26.775" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.775" style="6" customWidth="1"/>
+    <col min="13" max="13" width="23.775" style="6" customWidth="1"/>
+    <col min="14" max="14" width="22.5583333333333" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.3333333333333" style="6" customWidth="1"/>
+    <col min="16" max="16" width="23.3333333333333" style="6" customWidth="1"/>
+    <col min="17" max="17" width="21.775" style="6" customWidth="1"/>
+    <col min="18" max="18" width="21.5583333333333" style="6" customWidth="1"/>
+    <col min="19" max="19" width="24.8833333333333" style="6" customWidth="1"/>
+    <col min="20" max="20" width="16.1083333333333" style="6" customWidth="1"/>
+    <col min="21" max="21" width="24.875" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -9502,10 +9505,10 @@
         <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>82</v>
@@ -9558,8 +9561,11 @@
       <c r="V1" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -9570,13 +9576,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -9591,13 +9597,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
@@ -9606,13 +9612,13 @@
         <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>16</v>
@@ -9626,22 +9632,25 @@
       <c r="V2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:22">
+      <c r="W2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>101</v>
@@ -9655,10 +9664,10 @@
       <c r="I3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -9694,8 +9703,11 @@
       <c r="V3" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9762,1389 +9774,1477 @@
       <c r="V4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:22">
+      <c r="W4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:23">
       <c r="A5" s="7">
         <v>101</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6">
+      <c r="E5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>25</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>30</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>100</v>
       </c>
-      <c r="L5" s="6">
-        <v>2</v>
-      </c>
       <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>200</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>1200</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>5</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>60</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="V5"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:22">
+      <c r="U5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W5"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:23">
       <c r="A6" s="7">
         <v>201</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6">
+      <c r="E6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>25</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>30</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>100</v>
       </c>
-      <c r="L6" s="6">
-        <v>2</v>
-      </c>
       <c r="M6" s="6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
         <v>200</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>1200</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>5</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>60</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="V6"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:22">
+      <c r="U6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="W6"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:23">
       <c r="A7" s="7">
         <v>301</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6">
+      <c r="E7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>15</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>25</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>30</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>100</v>
       </c>
-      <c r="L7" s="6">
-        <v>2</v>
-      </c>
       <c r="M7" s="6">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6">
         <v>200</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>1200</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>5</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>60</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="V7"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:22">
+      <c r="U7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:23">
       <c r="A8" s="7">
         <v>401</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>15</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>25</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>30</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>100</v>
       </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
       <c r="M8" s="6">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
         <v>200</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>1200</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>0</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>5</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>60</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="U8" s="6"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="23">
         <v>501</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="23">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>15</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>25</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>30</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>100</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>0.5</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>200</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>1200</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>5</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>60</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="V9"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:20">
+      <c r="U9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:21">
       <c r="A10" s="7">
         <v>102</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
         <v>15</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>30</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>120</v>
       </c>
-      <c r="L10" s="6">
-        <v>2</v>
-      </c>
       <c r="M10" s="6">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6">
         <v>400</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>2400</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>200</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>5</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>60</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:20">
+      <c r="U10" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:21">
       <c r="A11" s="7">
         <v>202</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="E11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
         <v>15</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>30</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>120</v>
       </c>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
       <c r="M11" s="6">
+        <v>2</v>
+      </c>
+      <c r="N11" s="6">
         <v>400</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>2400</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>200</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>5</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>60</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T11" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:20">
+      <c r="U11" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:21">
       <c r="A12" s="7">
         <v>302</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>30</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>120</v>
       </c>
-      <c r="L12" s="6">
-        <v>2</v>
-      </c>
       <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
         <v>400</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>2400</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>200</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <v>5</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>60</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T12" s="6" t="s">
+      <c r="S12" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:20">
+      <c r="U12" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:21">
       <c r="A13" s="7">
         <v>402</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>25</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>30</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>120</v>
       </c>
-      <c r="L13" s="6">
-        <v>2</v>
-      </c>
       <c r="M13" s="6">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
         <v>400</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>2400</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <v>200</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <v>5</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="6">
         <v>60</v>
       </c>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="23">
         <v>502</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="23">
+        <v>6</v>
+      </c>
+      <c r="D14" s="23">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="E14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>25</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>30</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>120</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>0.5</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>400</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>2400</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>200</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>5</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>60</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:20">
+      <c r="U14" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:21">
       <c r="A15" s="7">
         <v>103</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7">
         <v>15</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>25</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <v>30</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>140</v>
       </c>
-      <c r="L15" s="6">
-        <v>2</v>
-      </c>
       <c r="M15" s="6">
+        <v>2</v>
+      </c>
+      <c r="N15" s="6">
         <v>800</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>4800</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <v>400</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <v>5</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>60</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:20">
+      <c r="U15" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="7">
         <v>203</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="E16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>25</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>30</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>140</v>
       </c>
-      <c r="L16" s="6">
-        <v>2</v>
-      </c>
       <c r="M16" s="6">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6">
         <v>800</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>4800</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>400</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <v>5</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <v>60</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:20">
+      <c r="U16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="7">
         <v>303</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="E17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>25</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <v>30</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>140</v>
       </c>
-      <c r="L17" s="6">
-        <v>2</v>
-      </c>
       <c r="M17" s="6">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6">
         <v>800</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>4800</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <v>400</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <v>5</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="6">
         <v>60</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T17" s="6" t="s">
+      <c r="S17" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:20">
+      <c r="U17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="7">
         <v>403</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>25</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>30</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>140</v>
       </c>
-      <c r="L18" s="6">
-        <v>2</v>
-      </c>
       <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6">
         <v>800</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>4800</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>400</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>5</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>60</v>
       </c>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="23">
         <v>503</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" s="23">
+        <v>6</v>
+      </c>
+      <c r="D19" s="23">
         <v>0</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>25</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>30</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>140</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>0.5</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>800</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>4800</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>400</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <v>5</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="R19" s="6">
         <v>60</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" s="6" t="s">
+      <c r="S19" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:20">
+      <c r="U19" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:21">
       <c r="A20" s="7">
         <v>104</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6">
+      <c r="E20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6">
         <v>4</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>15</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>25</v>
       </c>
-      <c r="I20" s="7">
+      <c r="J20" s="7">
         <v>30</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>160</v>
       </c>
-      <c r="L20" s="6">
-        <v>2</v>
-      </c>
       <c r="M20" s="6">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6">
         <v>1200</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>7200</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>800</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <v>5</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>60</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T20" s="6" t="s">
+      <c r="S20" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:20">
+      <c r="U20" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:21">
       <c r="A21" s="7">
         <v>204</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6">
+      <c r="E21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6">
         <v>4</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>15</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>25</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <v>30</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>160</v>
       </c>
-      <c r="L21" s="6">
-        <v>2</v>
-      </c>
       <c r="M21" s="6">
+        <v>2</v>
+      </c>
+      <c r="N21" s="6">
         <v>1200</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <v>7200</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>800</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <v>5</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>60</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T21" s="6" t="s">
+      <c r="S21" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:20">
+      <c r="U21" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:21">
       <c r="A22" s="7">
         <v>304</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6">
+      <c r="E22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>15</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>25</v>
       </c>
-      <c r="I22" s="7">
+      <c r="J22" s="7">
         <v>30</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>160</v>
       </c>
-      <c r="L22" s="6">
-        <v>2</v>
-      </c>
       <c r="M22" s="6">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6">
         <v>1200</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <v>7200</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <v>800</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <v>5</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <v>60</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:20">
+      <c r="S22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:21">
       <c r="A23" s="7">
         <v>404</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>15</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
         <v>25</v>
       </c>
-      <c r="I23" s="7">
+      <c r="J23" s="7">
         <v>30</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>160</v>
       </c>
-      <c r="L23" s="6">
-        <v>2</v>
-      </c>
       <c r="M23" s="6">
+        <v>2</v>
+      </c>
+      <c r="N23" s="6">
         <v>1200</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <v>7200</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <v>800</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <v>5</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="6">
         <v>60</v>
       </c>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="23">
         <v>504</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C24" s="23">
+        <v>6</v>
+      </c>
+      <c r="D24" s="23">
         <v>0</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <v>25</v>
       </c>
-      <c r="I24" s="7">
+      <c r="J24" s="7">
         <v>30</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>160</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>0.5</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>1200</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <v>7200</v>
       </c>
-      <c r="O24" s="6">
+      <c r="P24" s="6">
         <v>800</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q24" s="6">
         <v>5</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="R24" s="6">
         <v>60</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T24" s="6" t="s">
+      <c r="S24" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:20">
+      <c r="U24" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:21">
       <c r="A25" s="7">
         <v>105</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6">
+      <c r="E25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6">
         <v>5</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H25" s="7">
         <v>15</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I25" s="7">
         <v>25</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J25" s="7">
         <v>30</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>180</v>
       </c>
-      <c r="L25" s="6">
-        <v>2</v>
-      </c>
       <c r="M25" s="6">
+        <v>2</v>
+      </c>
+      <c r="N25" s="6">
         <v>1600</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>9600</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <v>1200</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <v>5</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>60</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T25" s="6" t="s">
+      <c r="S25" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:20">
+      <c r="U25" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:21">
       <c r="A26" s="7">
         <v>205</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6">
+      <c r="E26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6">
         <v>5</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <v>15</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="7">
         <v>25</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J26" s="7">
         <v>30</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>180</v>
       </c>
-      <c r="L26" s="6">
-        <v>2</v>
-      </c>
       <c r="M26" s="6">
+        <v>2</v>
+      </c>
+      <c r="N26" s="6">
         <v>1600</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <v>9600</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <v>1200</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="6">
         <v>5</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="R26" s="6">
         <v>60</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T26" s="6" t="s">
+      <c r="S26" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:20">
+      <c r="U26" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:21">
       <c r="A27" s="7">
         <v>305</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" s="7">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6">
+      <c r="E27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6">
         <v>5</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <v>15</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="7">
         <v>25</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J27" s="7">
         <v>30</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>180</v>
       </c>
-      <c r="L27" s="6">
-        <v>2</v>
-      </c>
       <c r="M27" s="6">
+        <v>2</v>
+      </c>
+      <c r="N27" s="6">
         <v>1600</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <v>9600</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <v>1200</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
         <v>5</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="R27" s="6">
         <v>60</v>
       </c>
-      <c r="R27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T27" s="6" t="s">
+      <c r="S27" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:20">
+      <c r="U27" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:21">
       <c r="A28" s="7">
         <v>405</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6">
         <v>5</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="7">
         <v>15</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I28" s="7">
         <v>25</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J28" s="7">
         <v>30</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>180</v>
       </c>
-      <c r="L28" s="6">
-        <v>2</v>
-      </c>
       <c r="M28" s="6">
+        <v>2</v>
+      </c>
+      <c r="N28" s="6">
         <v>1600</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>9600</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <v>1200</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <v>5</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R28" s="6">
         <v>60</v>
       </c>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="23">
         <v>505</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="23">
+        <v>6</v>
+      </c>
+      <c r="D29" s="23">
         <v>0</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="6">
         <v>5</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <v>15</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="7">
         <v>25</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="7">
         <v>30</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>180</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>0.5</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>1600</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <v>9600</v>
       </c>
-      <c r="O29" s="6">
+      <c r="P29" s="6">
         <v>1200</v>
       </c>
-      <c r="P29" s="6">
+      <c r="Q29" s="6">
         <v>5</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="R29" s="6">
         <v>60</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T29" s="6" t="s">
+      <c r="S29" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="U29" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11168,19 +11268,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -11202,19 +11302,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -11239,10 +11339,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11256,10 +11356,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -11273,10 +11373,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -11290,10 +11390,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -11307,10 +11407,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -11324,10 +11424,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -11341,10 +11441,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11358,10 +11458,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11375,10 +11475,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11392,10 +11492,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11409,10 +11509,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -11426,10 +11526,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -11443,10 +11543,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -11460,10 +11560,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -11477,10 +11577,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -11494,10 +11594,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -11511,10 +11611,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -11528,10 +11628,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -11565,16 +11665,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -11593,16 +11693,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -11742,16 +11842,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -11770,16 +11870,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -12044,19 +12144,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -12078,19 +12178,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -12115,10 +12215,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -12132,10 +12232,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12149,10 +12249,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12166,10 +12266,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12183,10 +12283,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12200,10 +12300,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12217,10 +12317,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12234,10 +12334,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12251,10 +12351,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12268,10 +12368,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12285,10 +12385,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12302,10 +12402,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12319,10 +12419,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12373,58 +12473,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -12488,55 +12588,55 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -12600,7 +12700,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -12639,7 +12739,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -12678,7 +12778,7 @@
         <v>301</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -12717,7 +12817,7 @@
         <v>401</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -12991,82 +13091,82 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -13154,79 +13254,79 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -13312,10 +13412,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -13367,13 +13467,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -13381,10 +13481,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -13436,13 +13536,13 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:26">
@@ -13450,10 +13550,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -13505,13 +13605,13 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:26">
@@ -13519,10 +13619,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="7">
         <v>3</v>
@@ -13574,13 +13674,13 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -13588,10 +13688,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
@@ -13643,10 +13743,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -13654,10 +13754,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7">
         <v>5</v>
@@ -13709,10 +13809,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -13720,10 +13820,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
@@ -13775,10 +13875,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -13996,8 +14096,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -14015,22 +14115,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>231</v>
@@ -14257,7 +14357,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:7">
+    <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -14265,65 +14365,65 @@
         <v>244</v>
       </c>
       <c r="C11" s="6">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
         <v>60</v>
       </c>
       <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:7">
+      <c r="G11" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C12" s="6">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D12" s="6">
         <v>300</v>
       </c>
       <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" spans="1:7">
+      <c r="G12" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C13" s="6">
-        <v>1280</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
         <v>1280</v>
       </c>
       <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>240</v>
+      <c r="G13" s="18" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -14331,7 +14431,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C14" s="6">
         <v>120</v>
@@ -14354,7 +14454,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C15" s="6">
         <v>1200</v>
@@ -14377,7 +14477,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C16" s="6">
         <v>6000</v>
@@ -14406,8 +14506,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14422,19 +14522,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -14459,16 +14559,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -14493,16 +14593,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -14510,44 +14610,44 @@
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="20" t="s">
         <v>262</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>263</v>
+      </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="20" t="s">
         <v>265</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -14558,10 +14658,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
@@ -14572,16 +14672,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14589,16 +14689,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14606,16 +14706,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14623,16 +14723,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -14640,10 +14740,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -14654,10 +14754,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
@@ -14691,22 +14791,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -14734,19 +14834,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -14774,10 +14874,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
@@ -14794,10 +14894,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D6" s="6">
         <v>40</v>
@@ -14814,7 +14914,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D7" s="6">
         <v>15</v>
@@ -14831,7 +14931,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D8" s="6">
         <v>15</v>
@@ -14848,7 +14948,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
@@ -14865,7 +14965,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D10" s="6">
         <v>25</v>
@@ -14901,16 +15001,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -14929,16 +15029,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -14958,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -14972,7 +15072,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -14986,7 +15086,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -15000,7 +15100,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -15014,7 +15114,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -15028,7 +15128,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -15042,7 +15142,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -15080,22 +15180,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>232</v>
@@ -15126,22 +15226,22 @@
     </row>
     <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>238</v>

--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="646">
   <si>
     <t>enemyID</t>
   </si>
@@ -753,6 +753,9 @@
     <t>limitCount</t>
   </si>
   <si>
+    <t>isGuanGAO</t>
+  </si>
+  <si>
     <t>obtainMethod</t>
   </si>
   <si>
@@ -804,7 +807,7 @@
     <t>仙玉3</t>
   </si>
   <si>
-    <t xml:space="preserve">祈愿令 </t>
+    <t>祈愿令</t>
   </si>
   <si>
     <t>propertyName</t>
@@ -835,15 +838,6 @@
   </si>
   <si>
     <t>Images/仙玉</t>
-  </si>
-  <si>
-    <t>soulInk</t>
-  </si>
-  <si>
-    <t>魂墨</t>
-  </si>
-  <si>
-    <t>Images/墨魂</t>
   </si>
   <si>
     <t>pleaseDivineOrder</t>
@@ -1696,199 +1690,160 @@
 3:加成的数值）</t>
   </si>
   <si>
-    <t>1,5,1|14,1,1|13,1,1</t>
+    <t>6,5,1|38,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,500</t>
-  </si>
-  <si>
-    <t>2,3,1|3,1,1|4,1,2|5,1,1|28,1,1</t>
+    <t>1,1,25|2,2,10|3,3,500</t>
+  </si>
+  <si>
+    <t>2,3,1|3,1,1|7,1,2</t>
+  </si>
+  <si>
+    <t>3,3,1|4,1,1|10,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Afternoon_01</t>
   </si>
   <si>
-    <t>3,3,1|4,1,1|5,1,3|28,1,1|29,1,1</t>
+    <t>4,3,1|5,1,1|11,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,501</t>
-  </si>
-  <si>
-    <t>4,3,1|5,1,1|6,1,3|29,1,1|30,1,1</t>
+    <t>5,3,1|9,1,1|11,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_shuilu_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,502</t>
-  </si>
-  <si>
-    <t>4,3,1|6,1,1|7,1,3|30,1,1|31,1,1</t>
+    <t>5,3,1|9,3,1|8,2,3|11,3,1|19,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_shuilu_Afternoon_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,503</t>
-  </si>
-  <si>
-    <t>5,3,1|6,3,1|8,2,3|31,3,1|32,1,1</t>
+    <t>6,3,1|7,2,1|8,5,3|9,3,1|20,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_shuilu_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,504</t>
-  </si>
-  <si>
-    <t>3,3,1|1,2,1|2,5,3|32,3,1|33,1,1</t>
+    <t>6,3,1|8,2,1|9,5,3|10,3,1|21,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_shandong_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,505</t>
-  </si>
-  <si>
-    <t>4,3,1|1,1,1|2,2,3|33,3,1|34,1,1</t>
+    <t>8,3,1|13,1,1|12,2,3|26,3,1|22,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_shandong_Afternoon_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,506</t>
-  </si>
-  <si>
-    <t>1,3,1|4,1,1|2,2,3|2,3,1|28,1,1</t>
+    <t>8,3,1|13,1,1|12,2,3|27,3,1|37,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_shandong_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,507</t>
-  </si>
-  <si>
-    <t>4,3,1|3,1,1|2,2,3|2,3,1|28,1,1</t>
+    <t>9,3,1|13,1,1|12,2,3|26,3,1|32,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu2_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,508</t>
+    <t>9,3,1|13,1,1|13,2,3|32,3,1|33,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu2_Afternoon_03</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,509</t>
+    <t>9,3,1|13,1,1|13,2,3|33,3,1|34,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu2_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,510</t>
+    <t>13,3,1|13,1,1|24,2,3|34,3,1|35,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu1_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,511</t>
+    <t>13,3,1|13,1,1|14,2,3|34,3,1|36,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu1_Afternoon_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,512</t>
+    <t>13,3,1|13,1,1|14,2,3|34,3,1|15,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu1_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,513</t>
+    <t>14,3,1|15,1,1|14,2,3|35,3,1|16,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu2_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,514</t>
+    <t>14,3,1|15,1,1|15,2,3|35,3,1|17,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu2_Afternoon_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,515</t>
+    <t>14,3,1|15,1,1|15,2,3|35,3,1|18,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu2_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,516</t>
+    <t>14,3,1|15,1,1|23,2,3|35,3,1|25,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu1_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,517</t>
+    <t>14,3,1|15,1,1|23,2,3|35,3,1|26,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu1_Afternoon_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,518</t>
+    <t>14,3,1|15,1,1|23,2,3|36,3,1|27,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu1_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,519</t>
+    <t>15,3,1|16,1,1|23,2,3|36,3,1|28,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_chenzhan_Moring_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,520</t>
+    <t>15,3,1|16,1,1|24,2,3|36,3,1|29,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_chenzhan_Afternoon_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,521</t>
+    <t>15,3,1|16,1,1|24,2,3|36,3,1|30,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_chenzhan_Night_01</t>
   </si>
   <si>
-    <t>1,1,10|2,2,10|3,3,522</t>
+    <t>15,3,1|14,1,1|15,2,3|36,3,1|31,1,1</t>
   </si>
   <si>
     <t>Scene_Standard_emeng_Night_01</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,523</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,524</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,525</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,526</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,527</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,528</t>
-  </si>
-  <si>
-    <t>1,1,10|2,2,10|3,3,529</t>
   </si>
   <si>
     <t>enemyGroupID</t>
@@ -1917,6 +1872,18 @@
     <t>1001,20</t>
   </si>
   <si>
+    <t>1002,25</t>
+  </si>
+  <si>
+    <t>1003,25</t>
+  </si>
+  <si>
+    <t>1004,25</t>
+  </si>
+  <si>
+    <t>1005,20</t>
+  </si>
+  <si>
     <t>1001,20|1002,25</t>
   </si>
   <si>
@@ -1926,73 +1893,7 @@
     <t>1003,20|1004,25</t>
   </si>
   <si>
-    <t>1005,20|1004,25</t>
-  </si>
-  <si>
-    <t>1006,20|1007,20</t>
-  </si>
-  <si>
-    <t>1008,20|1007,20|1006,20</t>
-  </si>
-  <si>
-    <t>1008,20|1007,20|1006,20|1005,30|1004,30|1003,30</t>
-  </si>
-  <si>
-    <t>1012,1|1008,25|1007,20|1006,20|1005,30</t>
-  </si>
-  <si>
-    <t>1013,6</t>
-  </si>
-  <si>
-    <t>1014,4</t>
-  </si>
-  <si>
-    <t>1015,1</t>
-  </si>
-  <si>
-    <t>1012,1|1001,10|1002,15|1004,15</t>
-  </si>
-  <si>
-    <t>1001,15|1002,15|1003,15</t>
-  </si>
-  <si>
-    <t>1009,1|1008,3|1002,15</t>
-  </si>
-  <si>
-    <t>1012,3|1015,1</t>
-  </si>
-  <si>
-    <t>1010,2|1007,10|1004,30</t>
-  </si>
-  <si>
-    <t>1014,1|1009,8|1005,20|1001,40</t>
-  </si>
-  <si>
-    <t>1014,2|1006,20|1005,35</t>
-  </si>
-  <si>
-    <t>1013,2|1007,8|1003,20|1001,30</t>
-  </si>
-  <si>
-    <t>1011,1|1008,5|1005,20|1002,30</t>
-  </si>
-  <si>
-    <t>1006,10|1007,10|1005,30</t>
-  </si>
-  <si>
-    <t>1012,8|1013,2|1014,1</t>
-  </si>
-  <si>
-    <t>1011,2|1008,15|1005,20|1001,30</t>
-  </si>
-  <si>
-    <t>1008,5|1005,15|1003,30|1001,40</t>
-  </si>
-  <si>
-    <t>1009,2|1006,10|1002,30</t>
-  </si>
-  <si>
-    <t>1014,1|1013,2|1009,10</t>
+    <t>1004,25|1005,20</t>
   </si>
   <si>
     <t>1001,30|1002,25|1003,25</t>
@@ -2001,19 +1902,85 @@
     <t>1002,30|1003,25|1004,25</t>
   </si>
   <si>
-    <t>1003,30|1004,25|1005,25|1006,15</t>
-  </si>
-  <si>
-    <t>1004,30|1005,25|1006,10|1007,10</t>
-  </si>
-  <si>
-    <t>1004,30|1005,25|1006,15|1007,15|1008,15</t>
+    <t>1003,30|1004,25|1005,25|1006,5</t>
+  </si>
+  <si>
+    <t>1004,30|1005,25|1006,5|1007,5</t>
+  </si>
+  <si>
+    <t>1004,30|1005,25|1006,15|1007,15|1008,5</t>
   </si>
   <si>
     <t>1004,25|1005,25|1006,10|1007,10|1008,10</t>
   </si>
   <si>
     <t>1004,25|1005,25|1006,10|1007,10|1008,10|1009,1</t>
+  </si>
+  <si>
+    <t>1004,25|1005,25|1006,15|1007,15|1008,15|1010,1</t>
+  </si>
+  <si>
+    <t>1005,25|1006,20|1007,20|1008,20|1011,1</t>
+  </si>
+  <si>
+    <t>1001,35|1002,35|1006,5</t>
+  </si>
+  <si>
+    <t>1002,35|1003,25|1007,5</t>
+  </si>
+  <si>
+    <t>1003,20|1004,25|1006,5</t>
+  </si>
+  <si>
+    <t>1005,20|1004,25|1007,5</t>
+  </si>
+  <si>
+    <t>1001,30|1002,25|1003,25|1006,15|1007,15</t>
+  </si>
+  <si>
+    <t>1002,30|1003,25|1004,25|1006,15|1007,15</t>
+  </si>
+  <si>
+    <t>1004,25|1005,25|1009,1</t>
+  </si>
+  <si>
+    <t>1004,25|1005,25|1010,1</t>
+  </si>
+  <si>
+    <t>1004,25|1005,25|1011,1</t>
+  </si>
+  <si>
+    <t>1006,15|1007,15|1009,1</t>
+  </si>
+  <si>
+    <t>1006,15|1007,15|1010,1</t>
+  </si>
+  <si>
+    <t>1006,15|1007,15|1011,1</t>
+  </si>
+  <si>
+    <t>1004,25|1005,25|1006,15|1007,15|1008,15|1011,1</t>
+  </si>
+  <si>
+    <t>1001,35|1002,35|1006,15</t>
+  </si>
+  <si>
+    <t>1002,35|1003,25|1007,15</t>
+  </si>
+  <si>
+    <t>1003,20|1004,25|1006,15</t>
+  </si>
+  <si>
+    <t>1005,20|1004,25|1007,15</t>
+  </si>
+  <si>
+    <t>1005,20|1004,25|1008,15</t>
+  </si>
+  <si>
+    <t>1005,20|1004,25|1008,5</t>
+  </si>
+  <si>
+    <t>1001,25|1002,25|1012,1</t>
   </si>
   <si>
     <t>1001,10</t>
@@ -2243,7 +2210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,8 +2237,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -2788,16 +2761,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2806,122 +2776,125 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2946,22 +2919,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2973,22 +2946,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -2997,7 +2973,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3322,8 +3298,8 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3336,7 +3312,7 @@
     <col min="7" max="7" width="40.125" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="9" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.5583333333333" style="21" customWidth="1"/>
+    <col min="10" max="10" width="24.5583333333333" style="22" customWidth="1"/>
     <col min="11" max="11" width="23.6666666666667" style="6" customWidth="1"/>
     <col min="12" max="12" width="26.775" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.3333333333333" style="6" customWidth="1"/>
@@ -3537,10 +3513,10 @@
       <c r="A5" s="7">
         <v>1001</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7">
@@ -3553,7 +3529,7 @@
         <v>200</v>
       </c>
       <c r="G5" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3584,10 +3560,10 @@
       <c r="A6" s="7">
         <v>1002</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="7">
@@ -3600,7 +3576,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H6" s="6">
         <v>20</v>
@@ -3631,10 +3607,10 @@
       <c r="A7" s="7">
         <v>1003</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="7">
@@ -3647,7 +3623,7 @@
         <v>350</v>
       </c>
       <c r="G7" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="6">
         <v>25</v>
@@ -3678,10 +3654,10 @@
       <c r="A8" s="7">
         <v>1004</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="7">
@@ -3694,7 +3670,7 @@
         <v>550</v>
       </c>
       <c r="G8" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H8" s="6">
         <v>30</v>
@@ -3725,10 +3701,10 @@
       <c r="A9" s="7">
         <v>1005</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="7">
@@ -3741,7 +3717,7 @@
         <v>600</v>
       </c>
       <c r="G9" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="6">
         <v>40</v>
@@ -3772,10 +3748,10 @@
       <c r="A10" s="7">
         <v>1006</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="7">
@@ -3785,7 +3761,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="7">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G10" s="7">
         <v>0.4</v>
@@ -3819,10 +3795,10 @@
       <c r="A11" s="7">
         <v>1007</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="7">
@@ -3832,7 +3808,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="7">
         <v>0.4</v>
@@ -3869,7 +3845,7 @@
       <c r="B12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="7">
@@ -3879,7 +3855,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="7">
         <v>0.4</v>
@@ -3916,7 +3892,7 @@
       <c r="B13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="6">
@@ -3926,10 +3902,10 @@
         <v>58</v>
       </c>
       <c r="F13" s="7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="6">
         <v>300</v>
@@ -3960,10 +3936,10 @@
       <c r="A14" s="7">
         <v>1010</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="6">
@@ -3973,10 +3949,10 @@
         <v>61</v>
       </c>
       <c r="F14" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -4010,7 +3986,7 @@
       <c r="B15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="6">
@@ -4020,10 +3996,10 @@
         <v>64</v>
       </c>
       <c r="F15" s="7">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="G15" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H15" s="6">
         <v>400</v>
@@ -4031,7 +4007,7 @@
       <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <v>5</v>
       </c>
       <c r="K15" s="7">
@@ -4054,10 +4030,10 @@
       <c r="A16" s="7">
         <v>1012</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="6">
@@ -4067,10 +4043,10 @@
         <v>67</v>
       </c>
       <c r="F16" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H16" s="6">
         <v>500</v>
@@ -4078,7 +4054,7 @@
       <c r="I16" s="6">
         <v>1.8</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="26">
         <v>7</v>
       </c>
       <c r="K16" s="6">
@@ -4101,10 +4077,10 @@
       <c r="A17" s="7">
         <v>1013</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="6">
@@ -4114,10 +4090,10 @@
         <v>70</v>
       </c>
       <c r="F17" s="6">
-        <v>450000</v>
+        <v>160000</v>
       </c>
       <c r="G17" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="6">
         <v>600</v>
@@ -4125,7 +4101,7 @@
       <c r="I17" s="6">
         <v>1.8</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <v>7</v>
       </c>
       <c r="K17" s="6">
@@ -4151,7 +4127,7 @@
       <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="6">
@@ -4161,10 +4137,10 @@
         <v>73</v>
       </c>
       <c r="F18" s="6">
-        <v>500000</v>
+        <v>240000</v>
       </c>
       <c r="G18" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="6">
         <v>700</v>
@@ -4172,7 +4148,7 @@
       <c r="I18" s="6">
         <v>1.8</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="26">
         <v>7</v>
       </c>
       <c r="K18" s="6">
@@ -4198,7 +4174,7 @@
       <c r="B19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="7">
@@ -4211,7 +4187,7 @@
         <v>815000</v>
       </c>
       <c r="G19" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="7">
         <v>1000</v>
@@ -4239,154 +4215,154 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="K23" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4419,16 +4395,16 @@
         <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -4453,16 +4429,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -4984,19 +4960,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -5018,19 +4994,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -5055,16 +5031,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5072,16 +5048,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5089,16 +5065,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5106,16 +5082,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5123,16 +5099,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5140,16 +5116,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5157,16 +5133,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5174,16 +5150,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5191,16 +5167,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5208,16 +5184,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5225,16 +5201,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5242,16 +5218,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5259,16 +5235,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5276,16 +5252,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5293,16 +5269,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5310,16 +5286,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5327,16 +5303,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5344,16 +5320,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5361,16 +5337,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5378,16 +5354,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5395,16 +5371,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5412,16 +5388,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5429,16 +5405,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5446,16 +5422,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5463,16 +5439,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5612,19 +5588,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -5646,19 +5622,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -5683,16 +5659,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5700,16 +5676,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5717,16 +5693,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5734,16 +5710,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5751,16 +5727,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5768,16 +5744,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5785,16 +5761,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5802,16 +5778,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5819,16 +5795,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5836,16 +5812,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5853,16 +5829,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5870,16 +5846,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5887,16 +5863,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5904,16 +5880,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5921,16 +5897,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5938,16 +5914,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5955,16 +5931,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5972,16 +5948,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5989,16 +5965,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6006,16 +5982,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6023,16 +5999,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6040,16 +6016,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6057,16 +6033,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6074,16 +6050,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6091,16 +6067,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6233,19 +6209,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -6267,19 +6243,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -6304,16 +6280,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6321,16 +6297,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6338,16 +6314,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6355,16 +6331,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6372,16 +6348,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6389,16 +6365,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6406,16 +6382,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6423,16 +6399,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6440,16 +6416,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6457,16 +6433,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6474,16 +6450,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6491,16 +6467,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6508,16 +6484,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6525,16 +6501,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6542,16 +6518,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6559,16 +6535,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6576,16 +6552,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6593,16 +6569,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6610,16 +6586,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6627,16 +6603,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6644,16 +6620,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6661,16 +6637,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6678,16 +6654,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6695,16 +6671,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" ht="13.95" customHeight="1" spans="1:5">
@@ -6712,16 +6688,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6855,16 +6831,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -6886,13 +6862,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -6918,7 +6894,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6930,7 +6906,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
@@ -7118,11 +7094,11 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7130,11 +7106,11 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7142,11 +7118,11 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7154,11 +7130,11 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7170,7 +7146,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7182,7 +7158,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7190,11 +7166,11 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7206,7 +7182,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7218,7 +7194,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7230,7 +7206,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7242,7 +7218,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7254,7 +7230,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7266,7 +7242,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7278,7 +7254,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7290,7 +7266,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7302,7 +7278,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7310,11 +7286,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7322,11 +7298,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C39"/>
       <c r="D39" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7334,11 +7310,11 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C40"/>
       <c r="D40" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7346,11 +7322,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C41"/>
       <c r="D41" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7358,11 +7334,11 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C42"/>
       <c r="D42" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7370,11 +7346,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C43"/>
       <c r="D43" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7382,11 +7358,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7394,11 +7370,11 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C45"/>
       <c r="D45" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7406,11 +7382,11 @@
         <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C46"/>
       <c r="D46" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7418,11 +7394,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7430,11 +7406,11 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7442,11 +7418,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7454,11 +7430,11 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C50"/>
       <c r="D50" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7466,11 +7442,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7478,11 +7454,11 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C52"/>
       <c r="D52" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7490,11 +7466,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C53"/>
       <c r="D53" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7502,11 +7478,11 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C54"/>
       <c r="D54" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7514,11 +7490,11 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C55"/>
       <c r="D55" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7526,11 +7502,11 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7538,11 +7514,11 @@
         <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7550,11 +7526,11 @@
         <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C58"/>
       <c r="D58" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7562,11 +7538,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7574,11 +7550,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C60"/>
       <c r="D60" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7586,11 +7562,11 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7598,11 +7574,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7610,11 +7586,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7622,11 +7598,11 @@
         <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7634,11 +7610,11 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7646,11 +7622,11 @@
         <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C66"/>
       <c r="D66" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7658,11 +7634,11 @@
         <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7670,11 +7646,11 @@
         <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:4">
@@ -7682,10 +7658,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7699,8 +7675,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7714,22 +7690,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -7754,22 +7730,22 @@
     </row>
     <row r="3" ht="71.25" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -7793,624 +7769,564 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="E7" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="D29" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
-        <v>18</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6">
-        <v>19</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="D30" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6">
-        <v>21</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>572</v>
+      <c r="F30" s="8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6">
-        <v>26</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>573</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
-        <v>27</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>574</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
-        <v>28</v>
-      </c>
-      <c r="B33" s="6">
-        <v>28</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>575</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6">
-        <v>29</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>576</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6">
-        <v>30</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>577</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>
@@ -8467,10 +8383,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8484,16 +8400,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -8512,16 +8428,16 @@
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -8543,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -8557,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -8571,7 +8487,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -8585,7 +8501,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -8599,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -8613,13 +8529,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -8627,13 +8543,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -8641,13 +8557,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -8655,13 +8571,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" s="8">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:4">
@@ -8669,13 +8585,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -8683,13 +8599,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
       </c>
       <c r="D15" s="8">
-        <v>4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -8697,13 +8613,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
       </c>
       <c r="D16" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:4">
@@ -8711,13 +8627,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="8">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:4">
@@ -8725,13 +8641,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
@@ -8739,13 +8655,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C19" s="8">
         <v>2</v>
       </c>
       <c r="D19" s="8">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:4">
@@ -8753,13 +8669,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:4">
@@ -8767,13 +8683,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
       </c>
       <c r="D21" s="8">
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
@@ -8781,13 +8697,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
       </c>
       <c r="D22" s="8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:4">
@@ -8795,13 +8711,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
       </c>
       <c r="D23" s="8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:4">
@@ -8809,13 +8725,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C24" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:4">
@@ -8823,13 +8739,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="8">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:4">
@@ -8837,13 +8753,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
       </c>
       <c r="D26" s="8">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
@@ -8851,13 +8767,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
       </c>
       <c r="D27" s="8">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
@@ -8865,7 +8781,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
@@ -8879,13 +8795,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
       </c>
       <c r="D29" s="8">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
@@ -8893,7 +8809,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="C30" s="8">
         <v>2</v>
@@ -8907,13 +8823,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
       </c>
       <c r="D31" s="8">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
@@ -8921,13 +8837,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
       </c>
       <c r="D32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
@@ -8935,13 +8851,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="C33" s="8">
         <v>2</v>
       </c>
       <c r="D33" s="8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
@@ -8949,13 +8865,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
       </c>
       <c r="D34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
@@ -8963,13 +8879,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
       </c>
       <c r="D35" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:4">
@@ -8977,13 +8893,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
       </c>
       <c r="D36" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:4">
@@ -8991,13 +8907,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="C37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:4">
@@ -9005,13 +8921,69 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
       </c>
       <c r="D38" s="8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:4">
+      <c r="A39" s="8">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:4">
+      <c r="A40" s="8">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:4">
+      <c r="A41" s="8">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:4">
+      <c r="A42" s="8">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -9026,7 +8998,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -9039,16 +9011,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -9067,16 +9039,16 @@
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -9098,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -9118,8 +9090,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -9132,13 +9104,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -9157,10 +9129,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9179,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -9190,7 +9162,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C6">
         <v>0.18</v>
@@ -9201,7 +9173,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="C7">
         <v>0.02</v>
@@ -9219,7 +9191,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9233,7 +9205,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>80</v>
@@ -9258,10 +9230,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9283,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9294,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9305,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9316,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9327,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9338,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9349,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>350</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9360,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9382,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9393,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9404,7 +9376,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9415,7 +9387,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9426,7 +9398,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9437,7 +9409,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9445,10 +9417,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -9465,8 +9437,8 @@
   <sheetPr/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9479,7 +9451,7 @@
     <col min="7" max="7" width="22" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="9" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.5583333333333" style="21" customWidth="1"/>
+    <col min="10" max="10" width="24.5583333333333" style="22" customWidth="1"/>
     <col min="11" max="11" width="26.775" style="6" customWidth="1"/>
     <col min="12" max="12" width="20.775" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.775" style="6" customWidth="1"/>
@@ -9782,11 +9754,11 @@
       <c r="A5" s="7">
         <v>101</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -9840,11 +9812,11 @@
       <c r="A6" s="7">
         <v>201</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -9898,11 +9870,11 @@
       <c r="A7" s="7">
         <v>301</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -9956,11 +9928,11 @@
       <c r="A8" s="7">
         <v>401</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -10006,16 +9978,16 @@
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="23">
+      <c r="A9" s="24">
         <v>501</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="23">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23">
+      <c r="C9" s="24">
+        <v>5</v>
+      </c>
+      <c r="D9" s="24">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -10066,11 +10038,11 @@
       <c r="A10" s="7">
         <v>102</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -10123,11 +10095,11 @@
       <c r="A11" s="7">
         <v>202</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
@@ -10180,11 +10152,11 @@
       <c r="A12" s="7">
         <v>302</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -10237,11 +10209,11 @@
       <c r="A13" s="7">
         <v>402</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
@@ -10286,16 +10258,16 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>502</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="23">
-        <v>6</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="24">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -10345,11 +10317,11 @@
       <c r="A15" s="7">
         <v>103</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -10402,11 +10374,11 @@
       <c r="A16" s="7">
         <v>203</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -10459,11 +10431,11 @@
       <c r="A17" s="7">
         <v>303</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -10516,11 +10488,11 @@
       <c r="A18" s="7">
         <v>403</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -10565,16 +10537,16 @@
       <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="23">
+      <c r="A19" s="24">
         <v>503</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="23">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="24">
+        <v>5</v>
+      </c>
+      <c r="D19" s="24">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -10624,11 +10596,11 @@
       <c r="A20" s="7">
         <v>104</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
@@ -10681,11 +10653,11 @@
       <c r="A21" s="7">
         <v>204</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -10738,11 +10710,11 @@
       <c r="A22" s="7">
         <v>304</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -10793,11 +10765,11 @@
       <c r="A23" s="7">
         <v>404</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
         <v>2</v>
@@ -10842,16 +10814,16 @@
       <c r="U23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="23">
+      <c r="A24" s="24">
         <v>504</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="23">
-        <v>6</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="24">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -10901,11 +10873,11 @@
       <c r="A25" s="7">
         <v>105</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -10958,11 +10930,11 @@
       <c r="A26" s="7">
         <v>205</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -11015,11 +10987,11 @@
       <c r="A27" s="7">
         <v>305</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -11072,11 +11044,11 @@
       <c r="A28" s="7">
         <v>405</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -11121,16 +11093,16 @@
       <c r="U28" s="6"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="23">
+      <c r="A29" s="24">
         <v>505</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="23">
-        <v>6</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="24">
+        <v>5</v>
+      </c>
+      <c r="D29" s="24">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -11177,74 +11149,74 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11258,29 +11230,30 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="49.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -11302,19 +11275,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -11339,10 +11312,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11356,10 +11329,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -11373,10 +11346,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -11390,10 +11363,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -11407,10 +11380,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -11424,10 +11397,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -11441,10 +11414,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11458,10 +11431,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11475,10 +11448,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11492,10 +11465,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11509,10 +11482,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -11526,10 +11499,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -11543,10 +11516,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -11560,10 +11533,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -11577,10 +11550,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -11594,10 +11567,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -11611,10 +11584,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -11628,10 +11601,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -11652,7 +11625,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -11665,16 +11638,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -11693,16 +11666,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -11829,7 +11802,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -11842,16 +11815,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -11870,16 +11843,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -11901,13 +11874,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -12133,7 +12106,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -12144,19 +12117,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -12178,19 +12151,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -12215,10 +12188,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -12232,10 +12205,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12249,10 +12222,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12266,10 +12239,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12283,10 +12256,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12300,10 +12273,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12317,10 +12290,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12334,10 +12307,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12351,10 +12324,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12368,10 +12341,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12385,10 +12358,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12402,10 +12375,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12419,10 +12392,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12456,7 +12429,7 @@
     <col min="6" max="6" width="22" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.775" style="6" customWidth="1"/>
     <col min="8" max="8" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" style="21" customWidth="1"/>
+    <col min="9" max="9" width="24.5583333333333" style="22" customWidth="1"/>
     <col min="10" max="10" width="23.6666666666667" style="6" customWidth="1"/>
     <col min="11" max="11" width="26.775" style="6" customWidth="1"/>
     <col min="12" max="12" width="20.775" style="6" customWidth="1"/>
@@ -12699,7 +12672,7 @@
       <c r="A5" s="7">
         <v>101</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="7">
@@ -12738,7 +12711,7 @@
       <c r="A6" s="7">
         <v>201</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>167</v>
       </c>
       <c r="C6" s="7">
@@ -12777,7 +12750,7 @@
       <c r="A7" s="7">
         <v>301</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>168</v>
       </c>
       <c r="C7" s="7">
@@ -12816,7 +12789,7 @@
       <c r="A8" s="7">
         <v>401</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="7">
@@ -12852,196 +12825,196 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13055,9 +13028,9 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I32" sqref="I32"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13070,7 +13043,7 @@
     <col min="7" max="7" width="22" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="10" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="11" max="11" width="24.5583333333333" style="21" customWidth="1"/>
+    <col min="11" max="11" width="24.5583333333333" style="22" customWidth="1"/>
     <col min="12" max="12" width="23.6666666666667" style="6" customWidth="1"/>
     <col min="13" max="13" width="26.775" style="6" customWidth="1"/>
     <col min="14" max="14" width="20.775" style="6" customWidth="1"/>
@@ -13414,7 +13387,7 @@
       <c r="B5" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="7">
@@ -13552,7 +13525,7 @@
       <c r="B7" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>215</v>
       </c>
       <c r="D7" s="7">
@@ -13621,7 +13594,7 @@
       <c r="B8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="7">
@@ -13690,13 +13663,13 @@
       <c r="B9" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>221</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="G9" s="6">
         <v>150</v>
       </c>
@@ -13756,13 +13729,13 @@
       <c r="B10" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="G10" s="6">
         <v>200</v>
       </c>
@@ -13822,13 +13795,13 @@
       <c r="B11" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="G11" s="6">
         <v>300</v>
       </c>
@@ -13882,208 +13855,208 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14094,13 +14067,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E5" sqref="E5:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="15.8833333333333" style="6" customWidth="1"/>
@@ -14110,10 +14083,11 @@
     <col min="6" max="6" width="15.2166666666667" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.4416666666667" style="6" customWidth="1"/>
     <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="9" max="9" width="12.625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>226</v>
       </c>
@@ -14138,8 +14112,11 @@
       <c r="H1" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -14159,39 +14136,45 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14216,13 +14199,16 @@
       <c r="H4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:8">
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:9">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C5" s="6">
         <v>100</v>
@@ -14236,17 +14222,20 @@
       <c r="F5" s="6">
         <v>6</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" ht="17.25" spans="1:8">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:9">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -14260,17 +14249,20 @@
       <c r="F6" s="6">
         <v>7</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" ht="17.25" spans="1:7">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="6">
         <v>100</v>
@@ -14284,16 +14276,19 @@
       <c r="F7" s="6">
         <v>8</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:7">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C8" s="6">
         <v>100</v>
@@ -14307,19 +14302,22 @@
       <c r="F8" s="6">
         <v>9</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:7">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D9" s="6">
         <v>30</v>
@@ -14330,19 +14328,22 @@
       <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="1:7">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D10" s="6">
         <v>30</v>
@@ -14353,16 +14354,19 @@
       <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:7">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>244</v>
+      <c r="B11" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -14374,18 +14378,21 @@
         <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>246</v>
+      <c r="B12" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -14397,18 +14404,21 @@
         <v>2</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>247</v>
+      <c r="B13" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="C13" s="6">
         <v>3</v>
@@ -14420,18 +14430,21 @@
         <v>2</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>248</v>
+      <c r="B14" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="C14" s="6">
         <v>120</v>
@@ -14443,21 +14456,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>3</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:8">
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>248</v>
+      <c r="B15" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="C15" s="6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="6">
         <v>10</v>
@@ -14466,21 +14482,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>3</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>248</v>
+      <c r="B16" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="C16" s="6">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D16" s="6">
         <v>50</v>
@@ -14489,11 +14508,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>240</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="2:7">
+      <c r="B17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14504,10 +14530,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14525,16 +14551,16 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -14559,16 +14585,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -14593,16 +14619,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -14610,61 +14636,61 @@
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>260</v>
       </c>
+      <c r="C6" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="D6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>262</v>
+      <c r="B7" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="6" t="s">
         <v>266</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="6" t="s">
         <v>267</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>268</v>
       </c>
       <c r="D9" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14672,16 +14698,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14689,16 +14715,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14706,33 +14732,30 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -14746,20 +14769,6 @@
         <v>282</v>
       </c>
       <c r="D14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="6">
         <v>3</v>
       </c>
     </row>
@@ -14775,7 +14784,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -14791,22 +14800,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -14834,19 +14843,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -14874,10 +14883,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
@@ -14894,10 +14903,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="6">
         <v>40</v>
@@ -14914,7 +14923,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="6">
         <v>15</v>
@@ -14931,7 +14940,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="6">
         <v>15</v>
@@ -14948,7 +14957,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
@@ -14965,7 +14974,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D10" s="6">
         <v>25</v>
@@ -14989,7 +14998,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -15001,16 +15010,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -15029,16 +15038,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -15058,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -15072,7 +15081,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -15086,7 +15095,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -15100,7 +15109,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -15114,7 +15123,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -15128,7 +15137,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -15142,7 +15151,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -15180,25 +15189,25 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
@@ -15229,22 +15238,22 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">

--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="674">
   <si>
     <t>enemyID</t>
   </si>
@@ -1153,7 +1153,10 @@
     <t>入世·破晓—闲庭</t>
   </si>
   <si>
-    <t>1,100|2,300|3,5</t>
+    <t>1,100|2,2</t>
+  </si>
+  <si>
+    <t>1,100|2,1|2,2</t>
   </si>
   <si>
     <t>入世·当空—闲庭</t>
@@ -1690,7 +1693,7 @@
 3:加成的数值）</t>
   </si>
   <si>
-    <t>6,5,1|38,1,1</t>
+    <t>1,5,1|29,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Moring_01</t>
@@ -1699,148 +1702,148 @@
     <t>1,1,25|2,2,10|3,3,500</t>
   </si>
   <si>
-    <t>2,3,1|3,1,1|7,1,2</t>
-  </si>
-  <si>
-    <t>3,3,1|4,1,1|10,1,3</t>
+    <t>1,3,1|2,1,1|3,1,3</t>
+  </si>
+  <si>
+    <t>1,3,1|2,1,1|17,1,1|20,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Afternoon_01</t>
   </si>
   <si>
-    <t>4,3,1|5,1,1|11,1,3</t>
+    <t>1,3,1|2,1,1|16,1,1|6,3,1|17,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_xinshou_Night_01</t>
   </si>
   <si>
-    <t>5,3,1|9,1,1|11,1,3</t>
+    <t>1,3,1|16,1,1|35,1,1|10,3,1|21,1,1|22,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_shuilu_Moring_01</t>
   </si>
   <si>
-    <t>5,3,1|9,3,1|8,2,3|11,3,1|19,1,1</t>
+    <t>1,3,1|3,1,1|17,1,1|16,1,1|22,1,1|8,1,1|11,1,1|30,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_shuilu_Afternoon_01</t>
   </si>
   <si>
-    <t>6,3,1|7,2,1|8,5,3|9,3,1|20,1,1</t>
+    <t>2,3,1|16,1,1|20,1,1|22,3,1|39,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_shuilu_Night_01</t>
   </si>
   <si>
-    <t>6,3,1|8,2,1|9,5,3|10,3,1|21,1,1</t>
+    <t>2,3,1|22,1,1|23,1,1|23,3,1|42,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_shandong_Moring_01</t>
   </si>
   <si>
-    <t>8,3,1|13,1,1|12,2,3|26,3,1|22,1,1</t>
+    <t>2,3,1|20,1,1|35,1,1|22,1,1|54,1,1|6,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_shandong_Afternoon_01</t>
   </si>
   <si>
-    <t>8,3,1|13,1,1|12,2,3|27,3,1|37,1,1</t>
+    <t>3,3,1|20,1,1|35,1,1|37,3,1|55,1,1|6,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_shandong_Night_01</t>
   </si>
   <si>
-    <t>9,3,1|13,1,1|12,2,3|26,3,1|32,1,1</t>
+    <t>2,3,1|16,1,1|3,1,1|23,1,1|30,1,1|24,1,1|25,1,1|32,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu2_Moring_01</t>
   </si>
   <si>
-    <t>9,3,1|13,1,1|13,2,3|32,3,1|33,1,1</t>
+    <t>3,3,1|17,1,1|20,1,1|23,3,1|42,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu2_Afternoon_03</t>
   </si>
   <si>
-    <t>9,3,1|13,1,1|13,2,3|33,3,1|34,1,1</t>
+    <t>3,3,1|22,1,1|24,1,1|26,3,1|43,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu2_Night_01</t>
   </si>
   <si>
-    <t>13,3,1|13,1,1|24,2,3|34,3,1|35,1,1</t>
+    <t>3,3,1|24,1,1|23,1,1|25,1,1|47,1,1|42,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu1_Moring_01</t>
   </si>
   <si>
-    <t>13,3,1|13,1,1|14,2,3|34,3,1|36,1,1</t>
+    <t>4,3,1|20,1,1|35,1,1|37,3,1|55,1,1|26,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu1_Afternoon_01</t>
   </si>
   <si>
-    <t>13,3,1|13,1,1|14,2,3|34,3,1|15,1,1</t>
+    <t>3,3,1|18,1,1|24,1,1|35,1,1|32,1,1|38,1,1|23,1,1|53,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_sanlu1_Night_01</t>
   </si>
   <si>
-    <t>14,3,1|15,1,1|14,2,3|35,3,1|16,1,1</t>
+    <t>4,3,1|21,1,1|23,1,1|37,3,1|40,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu2_Moring_01</t>
   </si>
   <si>
-    <t>14,3,1|15,1,1|15,2,3|35,3,1|17,1,1</t>
+    <t>4,3,1|22,1,1|24,1,1|26,3,1|30,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu2_Afternoon_01</t>
   </si>
   <si>
-    <t>14,3,1|15,1,1|15,2,3|35,3,1|18,1,1</t>
+    <t>23,3,1|24,1,1|25,1,1|35,1,1|37,1,1|38,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_erlu2_Night_01</t>
   </si>
   <si>
-    <t>14,3,1|15,1,1|23,2,3|35,3,1|25,1,1</t>
+    <t>5,3,1|20,1,1|35,1,1|37,3,1|55,1,1|26,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_erlu1_Moring_01</t>
   </si>
   <si>
-    <t>14,3,1|15,1,1|23,2,3|35,3,1|26,1,1</t>
+    <t>4,3,1|21,1,1|23,1,1|42,1,1|31,1,1|42,1,1|59,1,1|34,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_erlu1_Afternoon_01</t>
   </si>
   <si>
-    <t>14,3,1|15,1,1|23,2,3|36,3,1|27,1,1</t>
+    <t>4,3,1|23,1,1|25,1,1|39,3,1|42,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_erlu1_Night_01</t>
   </si>
   <si>
-    <t>15,3,1|16,1,1|23,2,3|36,3,1|28,1,1</t>
+    <t>23,3,1|45,1,1|55,1,1|32,3,1|53,2,1</t>
   </si>
   <si>
     <t>Scene_Standard_chenzhan_Moring_01</t>
   </si>
   <si>
-    <t>15,3,1|16,1,1|24,2,3|36,3,1|29,1,1</t>
+    <t>25,3,1|37,1,1|36,1,1|32,1,1|31,1,1|13,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_chenzhan_Afternoon_01</t>
   </si>
   <si>
-    <t>15,3,1|16,1,1|24,2,3|36,3,1|30,1,1</t>
+    <t>25,3,1|37,1,1|38,1,1|53,3,1|55,1,1|34,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_chenzhan_Night_01</t>
   </si>
   <si>
-    <t>15,3,1|14,1,1|15,2,3|36,3,1|31,1,1</t>
+    <t>5,3,1|19,1,1|23,1,1|37,1,1|64,1,1|24,1,1|55,3,1|65,1,3</t>
   </si>
   <si>
     <t>Scene_Standard_emeng_Night_01</t>
@@ -1869,118 +1872,199 @@
     <t>内容</t>
   </si>
   <si>
-    <t>1001,20</t>
-  </si>
-  <si>
-    <t>1002,25</t>
-  </si>
-  <si>
-    <t>1003,25</t>
-  </si>
-  <si>
-    <t>1004,25</t>
-  </si>
-  <si>
-    <t>1005,20</t>
-  </si>
-  <si>
-    <t>1001,20|1002,25</t>
-  </si>
-  <si>
-    <t>1002,20|1003,25</t>
-  </si>
-  <si>
-    <t>1003,20|1004,25</t>
-  </si>
-  <si>
-    <t>1004,25|1005,20</t>
-  </si>
-  <si>
-    <t>1001,30|1002,25|1003,25</t>
-  </si>
-  <si>
-    <t>1002,30|1003,25|1004,25</t>
-  </si>
-  <si>
-    <t>1003,30|1004,25|1005,25|1006,5</t>
-  </si>
-  <si>
-    <t>1004,30|1005,25|1006,5|1007,5</t>
-  </si>
-  <si>
-    <t>1004,30|1005,25|1006,15|1007,15|1008,5</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1006,10|1007,10|1008,10</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1006,10|1007,10|1008,10|1009,1</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1006,15|1007,15|1008,15|1010,1</t>
-  </si>
-  <si>
-    <t>1005,25|1006,20|1007,20|1008,20|1011,1</t>
-  </si>
-  <si>
-    <t>1001,35|1002,35|1006,5</t>
-  </si>
-  <si>
-    <t>1002,35|1003,25|1007,5</t>
-  </si>
-  <si>
-    <t>1003,20|1004,25|1006,5</t>
-  </si>
-  <si>
-    <t>1005,20|1004,25|1007,5</t>
-  </si>
-  <si>
-    <t>1001,30|1002,25|1003,25|1006,15|1007,15</t>
-  </si>
-  <si>
-    <t>1002,30|1003,25|1004,25|1006,15|1007,15</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1009,1</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1010,1</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1011,1</t>
-  </si>
-  <si>
-    <t>1006,15|1007,15|1009,1</t>
-  </si>
-  <si>
-    <t>1006,15|1007,15|1010,1</t>
-  </si>
-  <si>
-    <t>1006,15|1007,15|1011,1</t>
-  </si>
-  <si>
-    <t>1004,25|1005,25|1006,15|1007,15|1008,15|1011,1</t>
-  </si>
-  <si>
-    <t>1001,35|1002,35|1006,15</t>
-  </si>
-  <si>
-    <t>1002,35|1003,25|1007,15</t>
-  </si>
-  <si>
-    <t>1003,20|1004,25|1006,15</t>
-  </si>
-  <si>
-    <t>1005,20|1004,25|1007,15</t>
-  </si>
-  <si>
-    <t>1005,20|1004,25|1008,15</t>
-  </si>
-  <si>
-    <t>1005,20|1004,25|1008,5</t>
-  </si>
-  <si>
-    <t>1001,25|1002,25|1012,1</t>
+    <t>1001,12</t>
+  </si>
+  <si>
+    <t>1002,8</t>
+  </si>
+  <si>
+    <t>1003,8</t>
+  </si>
+  <si>
+    <t>1004,8</t>
+  </si>
+  <si>
+    <t>1005,8</t>
+  </si>
+  <si>
+    <t>1006,1</t>
+  </si>
+  <si>
+    <t>1006,2</t>
+  </si>
+  <si>
+    <t>1007,1</t>
+  </si>
+  <si>
+    <t>1007,3</t>
+  </si>
+  <si>
+    <t>1008,1</t>
+  </si>
+  <si>
+    <t>1008,2</t>
+  </si>
+  <si>
+    <t>1008,3</t>
+  </si>
+  <si>
+    <t>1009,1</t>
+  </si>
+  <si>
+    <t>1010,1</t>
+  </si>
+  <si>
+    <t>1011,1</t>
+  </si>
+  <si>
+    <t>1001,8|1002,5</t>
+  </si>
+  <si>
+    <t>1001,8|1003,6</t>
+  </si>
+  <si>
+    <t>1001,8|1004,3</t>
+  </si>
+  <si>
+    <t>1001,8|1005,1</t>
+  </si>
+  <si>
+    <t>1002,8|1003,5</t>
+  </si>
+  <si>
+    <t>1002,8|1004,4</t>
+  </si>
+  <si>
+    <t>1002,8|1005,3</t>
+  </si>
+  <si>
+    <t>1003,8|1004,6</t>
+  </si>
+  <si>
+    <t>1003,8|1005,2</t>
+  </si>
+  <si>
+    <t>1004,8|1005,2</t>
+  </si>
+  <si>
+    <t>1005,6|1006,1</t>
+  </si>
+  <si>
+    <t>1005,6|1007,2</t>
+  </si>
+  <si>
+    <t>1005,6|1008,1</t>
+  </si>
+  <si>
+    <t>1005,8|1012,1</t>
+  </si>
+  <si>
+    <t>1006,1|1007,2</t>
+  </si>
+  <si>
+    <t>1006,2|1007,4</t>
+  </si>
+  <si>
+    <t>1006,2|1008,4</t>
+  </si>
+  <si>
+    <t>1006,6|1009,1</t>
+  </si>
+  <si>
+    <t>1007,6|1009,1</t>
+  </si>
+  <si>
+    <t>1001,8|1002,6|1003,4</t>
+  </si>
+  <si>
+    <t>1001,8|1003,6|1004,3</t>
+  </si>
+  <si>
+    <t>1001,8|1004,4|1005,2</t>
+  </si>
+  <si>
+    <t>1001,8|1003,4|1007,1</t>
+  </si>
+  <si>
+    <t>1002,8|1003,6|1004,4</t>
+  </si>
+  <si>
+    <t>1002,8|1004,3|1006,1</t>
+  </si>
+  <si>
+    <t>1002,8|1005,4|1006,1</t>
+  </si>
+  <si>
+    <t>1003,8|1004,6|1005,1</t>
+  </si>
+  <si>
+    <t>1003,8|1005,3|1006,1</t>
+  </si>
+  <si>
+    <t>1003,8|1005,3|1007,2</t>
+  </si>
+  <si>
+    <t>1003,8|1006,1|1007,2</t>
+  </si>
+  <si>
+    <t>1003,8|1006,1|1008,1</t>
+  </si>
+  <si>
+    <t>1004,8|1005,4|1006,1</t>
+  </si>
+  <si>
+    <t>1004,8|1006,1|1007,2</t>
+  </si>
+  <si>
+    <t>1004,8|1007,2|1008,1</t>
+  </si>
+  <si>
+    <t>1005,4|1006,1|1007,2</t>
+  </si>
+  <si>
+    <t>1005,4|1006,1|1008,1</t>
+  </si>
+  <si>
+    <t>1005,4|1007,2|1008,1</t>
+  </si>
+  <si>
+    <t>1006,1|1007,2|1008,2</t>
+  </si>
+  <si>
+    <t>1001,8|1002,6|1003,6|1004,2</t>
+  </si>
+  <si>
+    <t>1001,8|1003,6|1004,5|1005,3</t>
+  </si>
+  <si>
+    <t>1001,8|1004,3|1005,2|1006,1</t>
+  </si>
+  <si>
+    <t>1001,8|1004,3|1005,2|1007,1</t>
+  </si>
+  <si>
+    <t>1001,8|1004,3|1005,2|1008,1</t>
+  </si>
+  <si>
+    <t>1002,8|1003,6|1004,4|1005,2</t>
+  </si>
+  <si>
+    <t>1002,8|1004,6|1005,2|1006,1</t>
+  </si>
+  <si>
+    <t>1003,8|1004,6|1005,2|1006,1</t>
+  </si>
+  <si>
+    <t>1003,8|1005,4|1006,1|1007,2</t>
+  </si>
+  <si>
+    <t>1004,8|1005,4|1006,1|1007,1</t>
+  </si>
+  <si>
+    <t>1004,8|1006,1|1007,2|1008,1</t>
+  </si>
+  <si>
+    <t>1005,8|1007,2|1008,8|1012,1</t>
   </si>
   <si>
     <t>1001,10</t>
@@ -2894,7 +2978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2924,6 +3008,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3298,8 +3385,8 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3312,7 +3399,7 @@
     <col min="7" max="7" width="40.125" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="9" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.5583333333333" style="22" customWidth="1"/>
+    <col min="10" max="10" width="24.5583333333333" style="23" customWidth="1"/>
     <col min="11" max="11" width="23.6666666666667" style="6" customWidth="1"/>
     <col min="12" max="12" width="26.775" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.3333333333333" style="6" customWidth="1"/>
@@ -3513,10 +3600,10 @@
       <c r="A5" s="7">
         <v>1001</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7">
@@ -3526,7 +3613,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7">
         <v>0.4</v>
@@ -3550,20 +3637,20 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:15">
       <c r="A6" s="7">
         <v>1002</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="7">
@@ -3573,7 +3660,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G6" s="7">
         <v>0.4</v>
@@ -3597,20 +3684,20 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:15">
       <c r="A7" s="7">
         <v>1003</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="7">
@@ -3620,7 +3707,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="6">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="G7" s="7">
         <v>0.4</v>
@@ -3644,20 +3731,20 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:15">
       <c r="A8" s="7">
         <v>1004</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="7">
@@ -3667,7 +3754,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G8" s="7">
         <v>0.4</v>
@@ -3685,26 +3772,26 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:15">
       <c r="A9" s="7">
         <v>1005</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="7">
@@ -3714,7 +3801,7 @@
         <v>46</v>
       </c>
       <c r="F9" s="6">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="G9" s="7">
         <v>0.4</v>
@@ -3723,7 +3810,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -3732,26 +3819,26 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:15">
       <c r="A10" s="7">
         <v>1006</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="7">
@@ -3761,7 +3848,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="7">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G10" s="7">
         <v>0.4</v>
@@ -3776,29 +3863,29 @@
         <v>4</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:15">
       <c r="A11" s="7">
         <v>1007</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="7">
@@ -3808,7 +3895,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="6">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="7">
         <v>0.4</v>
@@ -3817,35 +3904,35 @@
         <v>180</v>
       </c>
       <c r="I11" s="6">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="J11" s="7">
         <v>4</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:15">
       <c r="A12" s="7">
         <v>1008</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="7">
@@ -3855,7 +3942,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="7">
         <v>0.4</v>
@@ -3870,29 +3957,29 @@
         <v>4</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:15">
       <c r="A13" s="7">
         <v>1009</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="6">
@@ -3902,7 +3989,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="7">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="7">
         <v>0.2</v>
@@ -3917,29 +4004,29 @@
         <v>5</v>
       </c>
       <c r="K13" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:15">
       <c r="A14" s="7">
         <v>1010</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="6">
@@ -3949,7 +4036,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="7">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="G14" s="7">
         <v>0.2</v>
@@ -3964,29 +4051,29 @@
         <v>5</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:15">
       <c r="A15" s="7">
         <v>1011</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="6">
@@ -3996,7 +4083,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="7">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="G15" s="7">
         <v>0.2</v>
@@ -4007,33 +4094,33 @@
       <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <v>5</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:15">
       <c r="A16" s="7">
         <v>1012</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="6">
@@ -4054,33 +4141,33 @@
       <c r="I16" s="6">
         <v>1.8</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="27">
         <v>7</v>
       </c>
       <c r="K16" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>0.15</v>
       </c>
       <c r="N16" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:15">
       <c r="A17" s="7">
         <v>1013</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="6">
@@ -4101,33 +4188,33 @@
       <c r="I17" s="6">
         <v>1.8</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="27">
         <v>7</v>
       </c>
       <c r="K17" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>0.15</v>
       </c>
       <c r="N17" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:15">
       <c r="A18" s="7">
         <v>1014</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="6">
@@ -4148,33 +4235,33 @@
       <c r="I18" s="6">
         <v>1.8</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="27">
         <v>7</v>
       </c>
       <c r="K18" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L18" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M18" s="7">
         <v>0.15</v>
       </c>
       <c r="N18" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:15">
       <c r="A19" s="7">
         <v>1015</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="7">
@@ -4208,161 +4295,161 @@
         <v>0.25</v>
       </c>
       <c r="N19" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="K23" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4946,8 +5033,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5036,11 +5123,11 @@
       <c r="C5" s="6">
         <v>200</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>334</v>
+      <c r="E5" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5048,16 +5135,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>334</v>
+      <c r="E6" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5065,16 +5152,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>334</v>
+      <c r="E7" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5082,16 +5169,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>334</v>
+      <c r="E8" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5099,16 +5186,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>334</v>
+      <c r="E9" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5116,16 +5203,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>334</v>
+      <c r="E10" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5133,16 +5220,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>334</v>
+      <c r="E11" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5150,16 +5237,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>334</v>
+      <c r="E12" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5167,16 +5254,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>334</v>
+      <c r="E13" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5184,16 +5271,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>334</v>
+      <c r="E14" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5201,16 +5288,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>334</v>
+      <c r="E15" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5218,16 +5305,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>334</v>
+      <c r="E16" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5235,16 +5322,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>334</v>
+      <c r="E17" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5252,16 +5339,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>334</v>
+      <c r="E18" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5269,16 +5356,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>334</v>
+      <c r="E19" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5286,16 +5373,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>334</v>
+      <c r="E20" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5303,16 +5390,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>334</v>
+      <c r="E21" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5320,16 +5407,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>334</v>
+      <c r="E22" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5337,16 +5424,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>334</v>
+      <c r="E23" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5354,16 +5441,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>334</v>
+      <c r="E24" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5371,16 +5458,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>334</v>
+      <c r="E25" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5388,16 +5475,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>334</v>
+      <c r="E26" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5405,16 +5492,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>334</v>
+      <c r="E27" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5422,16 +5509,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>334</v>
+      <c r="E28" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5439,128 +5526,128 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>334</v>
+      <c r="E29" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="6"/>
     </row>
   </sheetData>
@@ -5575,7 +5662,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D5" sqref="D5:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5659,16 +5746,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>334</v>
+      <c r="E5" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5676,16 +5763,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>334</v>
+      <c r="E6" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5693,16 +5780,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>334</v>
+      <c r="E7" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5710,16 +5797,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>334</v>
+      <c r="E8" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5727,16 +5814,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>334</v>
+      <c r="E9" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5744,16 +5831,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>334</v>
+      <c r="E10" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5761,16 +5848,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>334</v>
+      <c r="E11" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5778,16 +5865,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>334</v>
+      <c r="E12" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5795,16 +5882,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>334</v>
+      <c r="E13" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5812,16 +5899,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>334</v>
+      <c r="E14" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5829,16 +5916,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>334</v>
+      <c r="E15" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5846,16 +5933,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>334</v>
+      <c r="E16" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5863,16 +5950,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>334</v>
+      <c r="E17" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5880,16 +5967,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>334</v>
+      <c r="E18" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5897,16 +5984,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>334</v>
+      <c r="E19" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5914,16 +6001,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>334</v>
+      <c r="E20" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5931,16 +6018,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>334</v>
+      <c r="E21" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5948,16 +6035,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>334</v>
+      <c r="E22" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5965,16 +6052,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>334</v>
+      <c r="E23" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5982,16 +6069,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>334</v>
+      <c r="E24" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5999,16 +6086,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>334</v>
+      <c r="E25" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6016,16 +6103,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>334</v>
+      <c r="E26" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6033,16 +6120,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>334</v>
+      <c r="E27" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6050,16 +6137,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>334</v>
+      <c r="E28" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6067,121 +6154,121 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>334</v>
+      <c r="E29" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" ht="39.6" customHeight="1" spans="1:5">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="6"/>
     </row>
   </sheetData>
@@ -6195,8 +6282,8 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6280,16 +6367,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>334</v>
+      <c r="E5" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6297,16 +6384,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>334</v>
+      <c r="E6" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6314,16 +6401,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>334</v>
+      <c r="E7" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6331,16 +6418,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>334</v>
+      <c r="E8" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6348,16 +6435,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>334</v>
+      <c r="E9" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6365,16 +6452,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>334</v>
+      <c r="E10" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6382,16 +6469,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>334</v>
+      <c r="E11" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6399,16 +6486,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>334</v>
+      <c r="E12" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6416,16 +6503,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>334</v>
+      <c r="E13" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6433,16 +6520,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>334</v>
+      <c r="E14" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6450,16 +6537,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>334</v>
+      <c r="E15" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6467,16 +6554,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>334</v>
+      <c r="E16" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6484,16 +6571,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>334</v>
+      <c r="E17" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6501,16 +6588,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>334</v>
+      <c r="E18" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6518,16 +6605,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>334</v>
+      <c r="E19" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6535,16 +6622,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>334</v>
+      <c r="E20" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6552,16 +6639,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>334</v>
+      <c r="E21" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6569,16 +6656,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>334</v>
+      <c r="E22" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6586,16 +6673,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>334</v>
+      <c r="E23" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6603,16 +6690,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>334</v>
+      <c r="E24" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6620,16 +6707,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>334</v>
+      <c r="E25" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6637,16 +6724,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>334</v>
+      <c r="E26" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6654,16 +6741,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>334</v>
+      <c r="E27" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6671,16 +6758,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>334</v>
+      <c r="E28" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="29" ht="13.95" customHeight="1" spans="1:5">
@@ -6688,121 +6775,121 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>334</v>
+      <c r="E29" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" ht="31.8" customHeight="1" spans="1:5">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="6"/>
     </row>
   </sheetData>
@@ -6816,7 +6903,7 @@
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6830,58 +6917,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>412</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>413</v>
+      <c r="D3" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
         <v>3</v>
       </c>
     </row>
@@ -6894,7 +6981,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6906,14 +6993,14 @@
       </c>
       <c r="C6"/>
       <c r="D6" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C7"/>
@@ -6925,7 +7012,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C8"/>
@@ -6937,7 +7024,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C9"/>
@@ -6949,7 +7036,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C10"/>
@@ -6961,7 +7048,7 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C11"/>
@@ -6973,7 +7060,7 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C12"/>
@@ -6985,7 +7072,7 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C13"/>
@@ -6997,7 +7084,7 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C14"/>
@@ -7009,7 +7096,7 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C15"/>
@@ -7021,7 +7108,7 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C16"/>
@@ -7033,7 +7120,7 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C17"/>
@@ -7045,7 +7132,7 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C18"/>
@@ -7057,7 +7144,7 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C19"/>
@@ -7069,7 +7156,7 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C20"/>
@@ -7081,7 +7168,7 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C21"/>
@@ -7094,11 +7181,11 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7106,11 +7193,11 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7118,11 +7205,11 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7130,11 +7217,11 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7146,7 +7233,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7158,7 +7245,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7166,11 +7253,11 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7182,7 +7269,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7194,7 +7281,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7206,7 +7293,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7218,7 +7305,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7230,7 +7317,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7242,7 +7329,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7254,7 +7341,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7266,7 +7353,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7278,7 +7365,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7286,11 +7373,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7298,11 +7385,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C39"/>
       <c r="D39" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7310,11 +7397,11 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C40"/>
       <c r="D40" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7322,11 +7409,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C41"/>
       <c r="D41" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7334,11 +7421,11 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C42"/>
       <c r="D42" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7346,11 +7433,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C43"/>
       <c r="D43" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7358,11 +7445,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7370,11 +7457,11 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C45"/>
       <c r="D45" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7382,11 +7469,11 @@
         <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C46"/>
       <c r="D46" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7394,11 +7481,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7406,11 +7493,11 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7418,11 +7505,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7430,11 +7517,11 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C50"/>
       <c r="D50" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7442,11 +7529,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7454,11 +7541,11 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C52"/>
       <c r="D52" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7466,11 +7553,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C53"/>
       <c r="D53" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7478,11 +7565,11 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C54"/>
       <c r="D54" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7490,11 +7577,11 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C55"/>
       <c r="D55" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7502,11 +7589,11 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7514,11 +7601,11 @@
         <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7526,11 +7613,11 @@
         <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C58"/>
       <c r="D58" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7538,11 +7625,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7550,11 +7637,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C60"/>
       <c r="D60" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7562,11 +7649,11 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7574,11 +7661,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7586,11 +7673,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7598,11 +7685,11 @@
         <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7610,11 +7697,11 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7622,11 +7709,11 @@
         <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C66"/>
       <c r="D66" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7634,11 +7721,11 @@
         <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7646,22 +7733,22 @@
         <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="1:4">
-      <c r="A69" s="14">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:4">
+      <c r="A69" s="15">
         <v>65</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="B69" s="11" t="s">
         <v>500</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7676,7 +7763,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F30" sqref="A5:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7690,22 +7777,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -7736,16 +7823,16 @@
         <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -7778,14 +7865,14 @@
       <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>511</v>
+      <c r="D5" s="10" t="s">
+        <v>512</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7798,14 +7885,14 @@
       <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7818,14 +7905,14 @@
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>515</v>
+      <c r="D7" s="10" t="s">
+        <v>516</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7838,14 +7925,14 @@
       <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>517</v>
+      <c r="D8" s="10" t="s">
+        <v>518</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7858,14 +7945,14 @@
       <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>519</v>
+      <c r="D9" s="10" t="s">
+        <v>520</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7878,14 +7965,14 @@
       <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>521</v>
+      <c r="D10" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7898,14 +7985,14 @@
       <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>523</v>
+      <c r="D11" s="10" t="s">
+        <v>524</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7918,14 +8005,14 @@
       <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>525</v>
+      <c r="D12" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7938,14 +8025,14 @@
       <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>527</v>
+      <c r="D13" s="10" t="s">
+        <v>528</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7958,14 +8045,14 @@
       <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>529</v>
+      <c r="D14" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7979,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7998,14 +8085,14 @@
       <c r="C16" s="8">
         <v>0</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>533</v>
+      <c r="D16" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8018,14 +8105,14 @@
       <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>535</v>
+      <c r="D17" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8038,14 +8125,14 @@
       <c r="C18" s="8">
         <v>0</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>537</v>
+      <c r="D18" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8058,14 +8145,14 @@
       <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>539</v>
+      <c r="D19" s="10" t="s">
+        <v>540</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8079,13 +8166,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8098,14 +8185,14 @@
       <c r="C21" s="8">
         <v>0</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>543</v>
+      <c r="D21" s="10" t="s">
+        <v>544</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8118,14 +8205,14 @@
       <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>545</v>
+      <c r="D22" s="10" t="s">
+        <v>546</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8138,14 +8225,14 @@
       <c r="C23" s="8">
         <v>0</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>547</v>
+      <c r="D23" s="10" t="s">
+        <v>548</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8158,14 +8245,14 @@
       <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>549</v>
+      <c r="D24" s="10" t="s">
+        <v>550</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8179,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8198,14 +8285,14 @@
       <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>553</v>
+      <c r="D26" s="10" t="s">
+        <v>554</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8218,14 +8305,14 @@
       <c r="C27" s="8">
         <v>0</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>555</v>
+      <c r="D27" s="10" t="s">
+        <v>556</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8238,14 +8325,14 @@
       <c r="C28" s="8">
         <v>0</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>557</v>
+      <c r="D28" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8258,14 +8345,14 @@
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>559</v>
+      <c r="D29" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8279,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8383,10 +8470,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8400,16 +8487,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -8431,13 +8518,13 @@
         <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -8459,13 +8546,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
         <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -8473,13 +8560,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -8487,13 +8574,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -8501,13 +8588,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
       </c>
       <c r="D8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -8515,82 +8602,82 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>575</v>
+      <c r="B10" s="7" t="s">
+        <v>576</v>
       </c>
       <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>576</v>
+      <c r="B11" s="7" t="s">
+        <v>577</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>577</v>
+      <c r="B12" s="7" t="s">
+        <v>578</v>
       </c>
       <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>578</v>
+      <c r="B13" s="7" t="s">
+        <v>579</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="D13" s="8">
-        <v>0.8</v>
+      <c r="D13" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>579</v>
+      <c r="B14" s="7" t="s">
+        <v>580</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8598,69 +8685,69 @@
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>580</v>
+      <c r="B15" s="7" t="s">
+        <v>581</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="8">
-        <v>1.2</v>
+      <c r="D15" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>581</v>
+      <c r="B16" s="7" t="s">
+        <v>582</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>582</v>
+      <c r="B17" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>583</v>
+      <c r="B18" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>584</v>
+      <c r="B19" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="C19" s="8">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>4</v>
       </c>
     </row>
@@ -8669,13 +8756,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
       </c>
       <c r="D20" s="8">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:4">
@@ -8683,13 +8770,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
       </c>
       <c r="D21" s="8">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
@@ -8697,13 +8784,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:4">
@@ -8711,7 +8798,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -8725,13 +8812,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="8">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:4">
@@ -8739,13 +8826,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:4">
@@ -8753,13 +8840,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
       </c>
       <c r="D26" s="8">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
@@ -8767,13 +8854,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
       </c>
       <c r="D27" s="8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
@@ -8781,13 +8868,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
       </c>
       <c r="D28" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:4">
@@ -8795,13 +8882,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
       </c>
       <c r="D29" s="8">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
@@ -8809,13 +8896,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C30" s="8">
         <v>2</v>
       </c>
       <c r="D30" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
@@ -8823,13 +8910,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
       </c>
       <c r="D31" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
@@ -8837,13 +8924,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
       </c>
       <c r="D32" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
@@ -8851,13 +8938,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1.1</v>
+        <v>599</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
@@ -8865,13 +8952,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
+        <v>600</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
@@ -8879,13 +8966,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
       </c>
       <c r="D35" s="8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:4">
@@ -8893,7 +8980,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
@@ -8907,13 +8994,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C37" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:4">
@@ -8921,13 +9008,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
       </c>
       <c r="D38" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:4">
@@ -8935,13 +9022,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
       </c>
       <c r="D39" s="8">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:4">
@@ -8949,13 +9036,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
       </c>
       <c r="D40" s="8">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:4">
@@ -8963,13 +9050,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C41" s="8">
         <v>2</v>
       </c>
       <c r="D41" s="8">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:4">
@@ -8977,13 +9064,391 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
       </c>
       <c r="D42" s="8">
-        <v>1.2</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:4">
+      <c r="A43" s="8">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:4">
+      <c r="A44" s="8">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:4">
+      <c r="A45" s="8">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:4">
+      <c r="A46" s="8">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:4">
+      <c r="A47" s="8">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:4">
+      <c r="A48" s="8">
+        <v>44</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:4">
+      <c r="A49" s="8">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:4">
+      <c r="A50" s="8">
+        <v>46</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:4">
+      <c r="A51" s="8">
+        <v>47</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:4">
+      <c r="A52" s="8">
+        <v>48</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:4">
+      <c r="A53" s="8">
+        <v>49</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:4">
+      <c r="A54" s="8">
+        <v>50</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:4">
+      <c r="A55" s="8">
+        <v>51</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:4">
+      <c r="A56" s="8">
+        <v>52</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:4">
+      <c r="A57" s="8">
+        <v>53</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:4">
+      <c r="A58" s="8">
+        <v>54</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:4">
+      <c r="A59" s="8">
+        <v>55</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:4">
+      <c r="A60" s="8">
+        <v>56</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:4">
+      <c r="A61" s="8">
+        <v>57</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:4">
+      <c r="A62" s="8">
+        <v>58</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C62" s="8">
+        <v>2</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:4">
+      <c r="A63" s="8">
+        <v>59</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C63" s="8">
+        <v>2</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:4">
+      <c r="A64" s="8">
+        <v>60</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C64" s="8">
+        <v>2</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:4">
+      <c r="A65" s="8">
+        <v>61</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:4">
+      <c r="A66" s="8">
+        <v>62</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C66" s="8">
+        <v>2</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:4">
+      <c r="A67" s="8">
+        <v>63</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C67" s="8">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:4">
+      <c r="A68" s="8">
+        <v>64</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C68" s="8">
+        <v>2</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:4">
+      <c r="A69" s="6">
+        <v>65</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -9011,16 +9476,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -9042,13 +9507,13 @@
         <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -9070,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -9090,8 +9555,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -9104,13 +9569,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -9132,7 +9597,7 @@
         <v>239</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9151,10 +9616,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9162,10 +9627,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="C6">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9173,10 +9638,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="C7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -9191,7 +9656,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B13" sqref="B13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9205,7 +9670,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>80</v>
@@ -9437,7 +9902,7 @@
   <sheetPr/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -9451,7 +9916,7 @@
     <col min="7" max="7" width="22" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="9" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.5583333333333" style="22" customWidth="1"/>
+    <col min="10" max="10" width="24.5583333333333" style="23" customWidth="1"/>
     <col min="11" max="11" width="26.775" style="6" customWidth="1"/>
     <col min="12" max="12" width="20.775" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.775" style="6" customWidth="1"/>
@@ -9754,7 +10219,7 @@
       <c r="A5" s="7">
         <v>101</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="7">
@@ -9812,7 +10277,7 @@
       <c r="A6" s="7">
         <v>201</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="7">
@@ -9870,7 +10335,7 @@
       <c r="A7" s="7">
         <v>301</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="7">
@@ -9928,7 +10393,7 @@
       <c r="A8" s="7">
         <v>401</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C8" s="7">
@@ -9978,16 +10443,16 @@
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="24">
+      <c r="A9" s="25">
         <v>501</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>5</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="25">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -10038,7 +10503,7 @@
       <c r="A10" s="7">
         <v>102</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="7">
@@ -10095,7 +10560,7 @@
       <c r="A11" s="7">
         <v>202</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="7">
@@ -10152,7 +10617,7 @@
       <c r="A12" s="7">
         <v>302</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="7">
@@ -10209,7 +10674,7 @@
       <c r="A13" s="7">
         <v>402</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="7">
@@ -10258,16 +10723,16 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="24">
+      <c r="A14" s="25">
         <v>502</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="25">
         <v>5</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="25">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -10317,7 +10782,7 @@
       <c r="A15" s="7">
         <v>103</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="7">
@@ -10374,7 +10839,7 @@
       <c r="A16" s="7">
         <v>203</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C16" s="7">
@@ -10431,7 +10896,7 @@
       <c r="A17" s="7">
         <v>303</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="7">
@@ -10488,7 +10953,7 @@
       <c r="A18" s="7">
         <v>403</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="7">
@@ -10537,16 +11002,16 @@
       <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="24">
+      <c r="A19" s="25">
         <v>503</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>5</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="25">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -10596,7 +11061,7 @@
       <c r="A20" s="7">
         <v>104</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C20" s="7">
@@ -10653,7 +11118,7 @@
       <c r="A21" s="7">
         <v>204</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C21" s="7">
@@ -10710,7 +11175,7 @@
       <c r="A22" s="7">
         <v>304</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C22" s="7">
@@ -10765,7 +11230,7 @@
       <c r="A23" s="7">
         <v>404</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="7">
@@ -10814,16 +11279,16 @@
       <c r="U23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="24">
+      <c r="A24" s="25">
         <v>504</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="25">
         <v>5</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="25">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -10873,7 +11338,7 @@
       <c r="A25" s="7">
         <v>105</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="7">
@@ -10930,7 +11395,7 @@
       <c r="A26" s="7">
         <v>205</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="7">
@@ -10987,7 +11452,7 @@
       <c r="A27" s="7">
         <v>305</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="7">
@@ -11044,7 +11509,7 @@
       <c r="A28" s="7">
         <v>405</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="7">
@@ -11093,16 +11558,16 @@
       <c r="U28" s="6"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="24">
+      <c r="A29" s="25">
         <v>505</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="25">
         <v>5</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="25">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -11149,74 +11614,74 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11244,16 +11709,16 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -11278,16 +11743,16 @@
         <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -11312,10 +11777,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11329,10 +11794,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -11346,10 +11811,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -11363,10 +11828,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -11380,10 +11845,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -11397,10 +11862,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -11414,10 +11879,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11431,10 +11896,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11448,10 +11913,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11465,10 +11930,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11482,10 +11947,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -11499,10 +11964,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -11516,10 +11981,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -11533,10 +11998,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -11550,10 +12015,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -11567,10 +12032,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -11584,10 +12049,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -11601,10 +12066,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -11638,16 +12103,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -11666,13 +12131,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>290</v>
@@ -11815,16 +12280,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -11843,16 +12308,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -12120,16 +12585,16 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -12154,16 +12619,16 @@
         <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -12188,10 +12653,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -12205,10 +12670,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12222,10 +12687,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12239,10 +12704,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12256,10 +12721,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12273,10 +12738,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12290,10 +12755,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12307,10 +12772,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12324,10 +12789,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12341,10 +12806,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12358,10 +12823,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12375,10 +12840,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12392,10 +12857,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12429,7 +12894,7 @@
     <col min="6" max="6" width="22" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.775" style="6" customWidth="1"/>
     <col min="8" max="8" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" style="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5583333333333" style="23" customWidth="1"/>
     <col min="10" max="10" width="23.6666666666667" style="6" customWidth="1"/>
     <col min="11" max="11" width="26.775" style="6" customWidth="1"/>
     <col min="12" max="12" width="20.775" style="6" customWidth="1"/>
@@ -12672,7 +13137,7 @@
       <c r="A5" s="7">
         <v>101</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="7">
@@ -12711,7 +13176,7 @@
       <c r="A6" s="7">
         <v>201</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>167</v>
       </c>
       <c r="C6" s="7">
@@ -12750,7 +13215,7 @@
       <c r="A7" s="7">
         <v>301</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C7" s="7">
@@ -12789,7 +13254,7 @@
       <c r="A8" s="7">
         <v>401</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="7">
@@ -12825,196 +13290,196 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13028,7 +13493,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
@@ -13043,7 +13508,7 @@
     <col min="7" max="7" width="22" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="6" customWidth="1"/>
     <col min="9" max="10" width="22.8833333333333" style="6" customWidth="1"/>
-    <col min="11" max="11" width="24.5583333333333" style="22" customWidth="1"/>
+    <col min="11" max="11" width="24.5583333333333" style="23" customWidth="1"/>
     <col min="12" max="12" width="23.6666666666667" style="6" customWidth="1"/>
     <col min="13" max="13" width="26.775" style="6" customWidth="1"/>
     <col min="14" max="14" width="20.775" style="6" customWidth="1"/>
@@ -13387,7 +13852,7 @@
       <c r="B5" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="7">
@@ -13525,7 +13990,7 @@
       <c r="B7" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>215</v>
       </c>
       <c r="D7" s="7">
@@ -13594,7 +14059,7 @@
       <c r="B8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="7">
@@ -13663,13 +14128,13 @@
       <c r="B9" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>221</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="G9" s="6">
         <v>150</v>
       </c>
@@ -13729,13 +14194,13 @@
       <c r="B10" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="G10" s="6">
         <v>200</v>
       </c>
@@ -13795,13 +14260,13 @@
       <c r="B11" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="G11" s="6">
         <v>300</v>
       </c>
@@ -13855,208 +14320,208 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14070,7 +14535,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14207,7 +14672,7 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>240</v>
       </c>
       <c r="C5" s="6">
@@ -14225,16 +14690,16 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" ht="17.25" spans="1:9">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>242</v>
       </c>
       <c r="C6" s="6">
@@ -14252,10 +14717,10 @@
       <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" ht="17.25" spans="1:8">
       <c r="A7" s="6">
@@ -14279,7 +14744,7 @@
       <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14305,7 +14770,7 @@
       <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14313,7 +14778,7 @@
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>240</v>
       </c>
       <c r="C9" s="6">
@@ -14331,7 +14796,7 @@
       <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14339,7 +14804,7 @@
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>242</v>
       </c>
       <c r="C10" s="6">
@@ -14357,7 +14822,7 @@
       <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14365,7 +14830,7 @@
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>245</v>
       </c>
       <c r="C11" s="6">
@@ -14383,7 +14848,7 @@
       <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="19" t="s">
         <v>246</v>
       </c>
     </row>
@@ -14391,7 +14856,7 @@
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>247</v>
       </c>
       <c r="C12" s="6">
@@ -14409,7 +14874,7 @@
       <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="19" t="s">
         <v>246</v>
       </c>
     </row>
@@ -14417,7 +14882,7 @@
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>248</v>
       </c>
       <c r="C13" s="6">
@@ -14435,7 +14900,7 @@
       <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="19" t="s">
         <v>246</v>
       </c>
     </row>
@@ -14443,7 +14908,7 @@
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="6">
@@ -14453,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -14461,7 +14926,7 @@
       <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="19" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14469,7 +14934,7 @@
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C15" s="6">
@@ -14479,7 +14944,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -14487,7 +14952,7 @@
       <c r="G15" s="6">
         <v>0</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14495,7 +14960,7 @@
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C16" s="6">
@@ -14505,7 +14970,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -14513,13 +14978,13 @@
       <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:7">
-      <c r="B17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14533,7 +14998,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14621,7 +15086,7 @@
       <c r="B5" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>258</v>
       </c>
       <c r="D5" s="6">
@@ -14635,10 +15100,10 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>261</v>
       </c>
       <c r="D6" s="6">
@@ -14655,7 +15120,7 @@
       <c r="B7" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>264</v>
       </c>
       <c r="D7" s="6">
@@ -14666,7 +15131,7 @@
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -14882,7 +15347,7 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -14902,7 +15367,7 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>293</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -14922,7 +15387,7 @@
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>295</v>
       </c>
       <c r="D7" s="6">
@@ -14939,7 +15404,7 @@
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>296</v>
       </c>
       <c r="D8" s="6">
@@ -14956,7 +15421,7 @@
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D9" s="6">
@@ -14973,7 +15438,7 @@
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>298</v>
       </c>
       <c r="D10" s="6">
@@ -15172,7 +15637,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="A1:E34"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/InkveilProject/config/InkveilProject.xlsx
+++ b/InkveilProject/config/InkveilProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="12" activeTab="17"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="673">
   <si>
     <t>enemyID</t>
   </si>
@@ -841,9 +841,6 @@
   </si>
   <si>
     <t>pleaseDivineOrder</t>
-  </si>
-  <si>
-    <t>请神令</t>
   </si>
   <si>
     <t>Images/请神令</t>
@@ -3385,8 +3382,8 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3619,7 +3616,7 @@
         <v>0.4</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
         <v>2.8</v>
@@ -3666,7 +3663,7 @@
         <v>0.4</v>
       </c>
       <c r="H6" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7">
         <v>3</v>
@@ -3713,7 +3710,7 @@
         <v>0.4</v>
       </c>
       <c r="H7" s="6">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
         <v>2.6</v>
@@ -3760,7 +3757,7 @@
         <v>0.4</v>
       </c>
       <c r="H8" s="6">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7">
         <v>2.2</v>
@@ -3807,7 +3804,7 @@
         <v>0.4</v>
       </c>
       <c r="H9" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I9" s="7">
         <v>3</v>
@@ -3854,7 +3851,7 @@
         <v>0.4</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -3901,7 +3898,7 @@
         <v>0.4</v>
       </c>
       <c r="H11" s="6">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I11" s="6">
         <v>3.2</v>
@@ -4482,13 +4479,13 @@
         <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>233</v>
@@ -4516,13 +4513,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>239</v>
@@ -5047,19 +5044,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -5081,19 +5078,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -5118,16 +5115,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5135,16 +5132,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5152,16 +5149,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5169,16 +5166,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5186,16 +5183,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5203,16 +5200,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5220,16 +5217,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5237,16 +5234,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5254,16 +5251,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5271,16 +5268,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5288,16 +5285,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5305,16 +5302,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5322,16 +5319,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5339,16 +5336,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5356,16 +5353,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5373,16 +5370,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5390,16 +5387,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5407,16 +5404,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5424,16 +5421,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5441,16 +5438,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5458,16 +5455,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5475,16 +5472,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5492,16 +5489,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5509,16 +5506,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5526,16 +5523,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5675,19 +5672,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -5709,19 +5706,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -5746,16 +5743,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5763,16 +5760,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5780,16 +5777,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5797,16 +5794,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5814,16 +5811,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5831,16 +5828,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5848,16 +5845,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5865,16 +5862,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5882,16 +5879,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5899,16 +5896,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5916,16 +5913,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5933,16 +5930,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5950,16 +5947,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5967,16 +5964,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5984,16 +5981,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6001,16 +5998,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6018,16 +6015,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6035,16 +6032,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6052,16 +6049,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6069,16 +6066,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6086,16 +6083,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6103,16 +6100,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6120,16 +6117,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6137,16 +6134,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6154,16 +6151,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6296,19 +6293,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -6330,19 +6327,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -6367,16 +6364,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6384,16 +6381,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6401,16 +6398,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6418,16 +6415,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6435,16 +6432,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="6">
         <v>200</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6452,16 +6449,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6469,16 +6466,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6486,16 +6483,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C12" s="6">
         <v>200</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6503,16 +6500,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6520,16 +6517,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6537,16 +6534,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C15" s="6">
         <v>200</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6554,16 +6551,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6571,16 +6568,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6588,16 +6585,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C18" s="6">
         <v>200</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6605,16 +6602,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C19" s="6">
         <v>200</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6622,16 +6619,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C20" s="6">
         <v>200</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6639,16 +6636,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C21" s="6">
         <v>200</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6656,16 +6653,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C22" s="6">
         <v>200</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6673,16 +6670,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C23" s="6">
         <v>200</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6690,16 +6687,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C24" s="6">
         <v>200</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6707,16 +6704,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6724,16 +6721,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6741,16 +6738,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C27" s="6">
         <v>200</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6758,16 +6755,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C28" s="6">
         <v>200</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" ht="13.95" customHeight="1" spans="1:5">
@@ -6775,16 +6772,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C29" s="6">
         <v>200</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6903,7 +6900,7 @@
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6918,16 +6915,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -6955,7 +6952,7 @@
         <v>239</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -6981,7 +6978,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6993,7 +6990,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
@@ -7181,11 +7178,11 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7193,11 +7190,11 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7205,11 +7202,11 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7217,11 +7214,11 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7233,7 +7230,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7245,7 +7242,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7253,11 +7250,11 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7269,7 +7266,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7281,7 +7278,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7293,7 +7290,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7305,7 +7302,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7317,7 +7314,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7329,7 +7326,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7341,7 +7338,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7353,7 +7350,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7365,7 +7362,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7373,11 +7370,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7385,11 +7382,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C39"/>
       <c r="D39" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7397,11 +7394,11 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C40"/>
       <c r="D40" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7409,11 +7406,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C41"/>
       <c r="D41" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7421,11 +7418,11 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C42"/>
       <c r="D42" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7433,11 +7430,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C43"/>
       <c r="D43" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7445,11 +7442,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7457,11 +7454,11 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C45"/>
       <c r="D45" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7469,11 +7466,11 @@
         <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C46"/>
       <c r="D46" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7481,11 +7478,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7493,11 +7490,11 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7505,11 +7502,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7517,11 +7514,11 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C50"/>
       <c r="D50" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7529,11 +7526,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7541,11 +7538,11 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C52"/>
       <c r="D52" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7553,11 +7550,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C53"/>
       <c r="D53" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7565,11 +7562,11 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C54"/>
       <c r="D54" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7577,11 +7574,11 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C55"/>
       <c r="D55" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7589,11 +7586,11 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7601,11 +7598,11 @@
         <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7613,11 +7610,11 @@
         <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C58"/>
       <c r="D58" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7625,11 +7622,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7637,11 +7634,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C60"/>
       <c r="D60" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7649,11 +7646,11 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7661,11 +7658,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7673,11 +7670,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7685,11 +7682,11 @@
         <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7697,11 +7694,11 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7709,11 +7706,11 @@
         <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C66"/>
       <c r="D66" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7721,11 +7718,11 @@
         <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7733,11 +7730,11 @@
         <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:4">
@@ -7745,10 +7742,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>500</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7777,22 +7774,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -7817,22 +7814,22 @@
     </row>
     <row r="3" ht="71.25" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -7866,13 +7863,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7886,13 +7883,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7906,13 +7903,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>517</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7926,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>519</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7946,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>521</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7966,13 +7963,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>523</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7986,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>525</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8006,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>527</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8026,13 +8023,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>529</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8046,13 +8043,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>531</v>
-      </c>
       <c r="F14" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8066,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>533</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8086,13 +8083,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>535</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8106,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>537</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8126,13 +8123,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>539</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8146,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>541</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8166,13 +8163,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>543</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8186,13 +8183,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>545</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8206,13 +8203,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>547</v>
-      </c>
       <c r="F22" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8226,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>549</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8246,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>551</v>
-      </c>
       <c r="F24" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8266,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>553</v>
-      </c>
       <c r="F25" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8286,13 +8283,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>555</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8306,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>557</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8326,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="F28" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8346,13 +8343,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>561</v>
-      </c>
       <c r="F29" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8366,13 +8363,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>563</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8487,16 +8484,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -8515,16 +8512,16 @@
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -8546,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C5" s="8">
         <v>2</v>
@@ -8560,7 +8557,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -8574,7 +8571,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
@@ -8588,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -8602,7 +8599,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -8616,7 +8613,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -8630,7 +8627,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
@@ -8644,7 +8641,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
@@ -8658,7 +8655,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -8672,7 +8669,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C14" s="8">
         <v>2</v>
@@ -8686,7 +8683,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -8700,7 +8697,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
@@ -8714,7 +8711,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -8728,7 +8725,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
@@ -8742,7 +8739,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C19" s="8">
         <v>2</v>
@@ -8756,7 +8753,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -8770,7 +8767,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
@@ -8784,7 +8781,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
@@ -8798,7 +8795,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -8812,7 +8809,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C24" s="8">
         <v>2</v>
@@ -8826,7 +8823,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
@@ -8840,7 +8837,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
@@ -8854,7 +8851,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
@@ -8868,7 +8865,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
@@ -8882,7 +8879,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
@@ -8896,7 +8893,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C30" s="8">
         <v>2</v>
@@ -8910,7 +8907,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -8924,7 +8921,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
@@ -8938,7 +8935,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -8952,7 +8949,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
@@ -8966,7 +8963,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
@@ -8980,7 +8977,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
@@ -8994,7 +8991,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C37" s="8">
         <v>2</v>
@@ -9008,7 +9005,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
@@ -9022,7 +9019,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
@@ -9036,7 +9033,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
@@ -9050,7 +9047,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C41" s="8">
         <v>2</v>
@@ -9064,7 +9061,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
@@ -9078,7 +9075,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C43" s="8">
         <v>2</v>
@@ -9092,7 +9089,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C44" s="8">
         <v>2</v>
@@ -9106,7 +9103,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
@@ -9120,7 +9117,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C46" s="8">
         <v>2</v>
@@ -9134,7 +9131,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C47" s="8">
         <v>2</v>
@@ -9148,7 +9145,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C48" s="8">
         <v>2</v>
@@ -9162,7 +9159,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -9176,7 +9173,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -9190,7 +9187,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
@@ -9204,7 +9201,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C52" s="8">
         <v>2</v>
@@ -9218,7 +9215,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -9232,7 +9229,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -9246,7 +9243,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -9260,7 +9257,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
@@ -9274,7 +9271,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -9288,7 +9285,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -9302,7 +9299,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -9316,7 +9313,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
@@ -9330,7 +9327,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
@@ -9344,7 +9341,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C62" s="8">
         <v>2</v>
@@ -9358,7 +9355,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -9372,7 +9369,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C64" s="8">
         <v>2</v>
@@ -9386,7 +9383,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
@@ -9400,7 +9397,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
@@ -9414,7 +9411,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -9428,7 +9425,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
@@ -9442,7 +9439,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C69" s="6">
         <v>2</v>
@@ -9476,16 +9473,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -9504,16 +9501,16 @@
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -9535,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -9555,7 +9552,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9569,13 +9566,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -9597,7 +9594,7 @@
         <v>239</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9616,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C5">
         <v>0.9</v>
@@ -9627,7 +9624,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C6">
         <v>0.09</v>
@@ -9638,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C7">
         <v>0.01</v>
@@ -9670,7 +9667,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>80</v>
@@ -9695,10 +9692,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -9902,8 +9899,8 @@
   <sheetPr/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10236,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
         <v>25</v>
@@ -10251,10 +10248,10 @@
         <v>2</v>
       </c>
       <c r="N5" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O5" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -10263,7 +10260,7 @@
         <v>5</v>
       </c>
       <c r="R5" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>121</v>
@@ -10294,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7">
         <v>25</v>
@@ -10309,10 +10306,10 @@
         <v>2</v>
       </c>
       <c r="N6" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O6" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -10321,7 +10318,7 @@
         <v>5</v>
       </c>
       <c r="R6" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>125</v>
@@ -10352,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
         <v>25</v>
@@ -10367,10 +10364,10 @@
         <v>2</v>
       </c>
       <c r="N7" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O7" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="P7" s="6">
         <v>0</v>
@@ -10379,7 +10376,7 @@
         <v>5</v>
       </c>
       <c r="R7" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>129</v>
@@ -10410,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
         <v>25</v>
@@ -10425,10 +10422,10 @@
         <v>2</v>
       </c>
       <c r="N8" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O8" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="P8" s="6">
         <v>0</v>
@@ -10437,7 +10434,7 @@
         <v>5</v>
       </c>
       <c r="R8" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="U8" s="6"/>
       <c r="W8"/>
@@ -10462,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7">
         <v>25</v>
@@ -10474,13 +10471,13 @@
         <v>100</v>
       </c>
       <c r="M9" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N9" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O9" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
@@ -10489,7 +10486,7 @@
         <v>5</v>
       </c>
       <c r="R9" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>135</v>
@@ -10520,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
         <v>25</v>
@@ -10535,10 +10532,10 @@
         <v>2</v>
       </c>
       <c r="N10" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O10" s="6">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="P10" s="6">
         <v>200</v>
@@ -10547,7 +10544,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>121</v>
@@ -10577,7 +10574,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
         <v>25</v>
@@ -10592,10 +10589,10 @@
         <v>2</v>
       </c>
       <c r="N11" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O11" s="6">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="P11" s="6">
         <v>200</v>
@@ -10604,7 +10601,7 @@
         <v>5</v>
       </c>
       <c r="R11" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>125</v>
@@ -10634,7 +10631,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
         <v>25</v>
@@ -10649,10 +10646,10 @@
         <v>2</v>
       </c>
       <c r="N12" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O12" s="6">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="P12" s="6">
         <v>200</v>
@@ -10661,7 +10658,7 @@
         <v>5</v>
       </c>
       <c r="R12" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>129</v>
@@ -10691,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
         <v>25</v>
@@ -10706,10 +10703,10 @@
         <v>2</v>
       </c>
       <c r="N13" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O13" s="6">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="P13" s="6">
         <v>200</v>
@@ -10718,7 +10715,7 @@
         <v>5</v>
       </c>
       <c r="R13" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="U13" s="6"/>
     </row>
@@ -10742,7 +10739,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
         <v>25</v>
@@ -10754,13 +10751,13 @@
         <v>120</v>
       </c>
       <c r="M14" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N14" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O14" s="6">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="P14" s="6">
         <v>200</v>
@@ -10769,7 +10766,7 @@
         <v>5</v>
       </c>
       <c r="R14" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>135</v>
@@ -10799,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
         <v>25</v>
@@ -10814,10 +10811,10 @@
         <v>2</v>
       </c>
       <c r="N15" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O15" s="6">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="P15" s="6">
         <v>400</v>
@@ -10826,7 +10823,7 @@
         <v>5</v>
       </c>
       <c r="R15" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>121</v>
@@ -10856,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
         <v>25</v>
@@ -10871,10 +10868,10 @@
         <v>2</v>
       </c>
       <c r="N16" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O16" s="6">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="P16" s="6">
         <v>400</v>
@@ -10883,7 +10880,7 @@
         <v>5</v>
       </c>
       <c r="R16" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>125</v>
@@ -10913,7 +10910,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
         <v>25</v>
@@ -10928,10 +10925,10 @@
         <v>2</v>
       </c>
       <c r="N17" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O17" s="6">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="P17" s="6">
         <v>400</v>
@@ -10940,7 +10937,7 @@
         <v>5</v>
       </c>
       <c r="R17" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>129</v>
@@ -10970,7 +10967,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
         <v>25</v>
@@ -10985,10 +10982,10 @@
         <v>2</v>
       </c>
       <c r="N18" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O18" s="6">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="P18" s="6">
         <v>400</v>
@@ -10997,7 +10994,7 @@
         <v>5</v>
       </c>
       <c r="R18" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="U18" s="6"/>
     </row>
@@ -11021,7 +11018,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
         <v>25</v>
@@ -11033,13 +11030,13 @@
         <v>140</v>
       </c>
       <c r="M19" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N19" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="O19" s="6">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="P19" s="6">
         <v>400</v>
@@ -11048,7 +11045,7 @@
         <v>5</v>
       </c>
       <c r="R19" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>135</v>
@@ -11078,7 +11075,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
         <v>25</v>
@@ -11093,10 +11090,10 @@
         <v>2</v>
       </c>
       <c r="N20" s="6">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="O20" s="6">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="P20" s="6">
         <v>800</v>
@@ -11105,7 +11102,7 @@
         <v>5</v>
       </c>
       <c r="R20" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>121</v>
@@ -11135,7 +11132,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" s="7">
         <v>25</v>
@@ -11150,10 +11147,10 @@
         <v>2</v>
       </c>
       <c r="N21" s="6">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="O21" s="6">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="P21" s="6">
         <v>800</v>
@@ -11162,7 +11159,7 @@
         <v>5</v>
       </c>
       <c r="R21" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>125</v>
@@ -11192,7 +11189,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
         <v>25</v>
@@ -11207,10 +11204,10 @@
         <v>2</v>
       </c>
       <c r="N22" s="6">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="O22" s="6">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="P22" s="6">
         <v>800</v>
@@ -11219,7 +11216,7 @@
         <v>5</v>
       </c>
       <c r="R22" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>129</v>
@@ -11247,7 +11244,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I23" s="7">
         <v>25</v>
@@ -11262,10 +11259,10 @@
         <v>2</v>
       </c>
       <c r="N23" s="6">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="O23" s="6">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="P23" s="6">
         <v>800</v>
@@ -11274,7 +11271,7 @@
         <v>5</v>
       </c>
       <c r="R23" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="U23" s="6"/>
     </row>
@@ -11298,7 +11295,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
         <v>25</v>
@@ -11310,13 +11307,13 @@
         <v>160</v>
       </c>
       <c r="M24" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N24" s="6">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="O24" s="6">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="P24" s="6">
         <v>800</v>
@@ -11325,7 +11322,7 @@
         <v>5</v>
       </c>
       <c r="R24" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>135</v>
@@ -11355,7 +11352,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
         <v>25</v>
@@ -11370,10 +11367,10 @@
         <v>2</v>
       </c>
       <c r="N25" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="O25" s="6">
-        <v>9600</v>
+        <v>19999</v>
       </c>
       <c r="P25" s="6">
         <v>1200</v>
@@ -11382,7 +11379,7 @@
         <v>5</v>
       </c>
       <c r="R25" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>121</v>
@@ -11412,7 +11409,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="7">
         <v>25</v>
@@ -11427,10 +11424,10 @@
         <v>2</v>
       </c>
       <c r="N26" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="O26" s="6">
-        <v>9600</v>
+        <v>19999</v>
       </c>
       <c r="P26" s="6">
         <v>1200</v>
@@ -11439,7 +11436,7 @@
         <v>5</v>
       </c>
       <c r="R26" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>125</v>
@@ -11469,7 +11466,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I27" s="7">
         <v>25</v>
@@ -11484,10 +11481,10 @@
         <v>2</v>
       </c>
       <c r="N27" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="O27" s="6">
-        <v>9600</v>
+        <v>19999</v>
       </c>
       <c r="P27" s="6">
         <v>1200</v>
@@ -11496,7 +11493,7 @@
         <v>5</v>
       </c>
       <c r="R27" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>129</v>
@@ -11526,7 +11523,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I28" s="7">
         <v>25</v>
@@ -11541,10 +11538,10 @@
         <v>2</v>
       </c>
       <c r="N28" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="O28" s="6">
-        <v>9600</v>
+        <v>19999</v>
       </c>
       <c r="P28" s="6">
         <v>1200</v>
@@ -11553,7 +11550,7 @@
         <v>5</v>
       </c>
       <c r="R28" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="U28" s="6"/>
     </row>
@@ -11577,7 +11574,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I29" s="7">
         <v>25</v>
@@ -11589,13 +11586,13 @@
         <v>180</v>
       </c>
       <c r="M29" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N29" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="O29" s="6">
-        <v>9600</v>
+        <v>19999</v>
       </c>
       <c r="P29" s="6">
         <v>1200</v>
@@ -11604,7 +11601,7 @@
         <v>5</v>
       </c>
       <c r="R29" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>135</v>
@@ -11706,19 +11703,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -11740,19 +11737,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -11777,10 +11774,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11794,10 +11791,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -11811,10 +11808,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -11828,10 +11825,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -11845,10 +11842,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -11862,10 +11859,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -11879,10 +11876,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11896,10 +11893,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11913,10 +11910,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11930,10 +11927,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11947,10 +11944,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -11964,10 +11961,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -11981,10 +11978,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -11998,10 +11995,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -12015,10 +12012,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -12032,10 +12029,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -12049,10 +12046,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -12066,10 +12063,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -12103,16 +12100,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -12131,16 +12128,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>658</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -12280,16 +12277,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -12308,16 +12305,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -12582,19 +12579,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -12616,19 +12613,19 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -12653,10 +12650,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -12670,10 +12667,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12687,10 +12684,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12704,10 +12701,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12721,10 +12718,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12738,10 +12735,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12755,10 +12752,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12772,10 +12769,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12789,10 +12786,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12806,10 +12803,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12823,10 +12820,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12840,10 +12837,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12857,10 +12854,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14997,8 +14994,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -15104,13 +15101,13 @@
         <v>260</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -15118,10 +15115,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -15132,10 +15129,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -15146,16 +15143,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -15163,16 +15160,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15180,16 +15177,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15197,16 +15194,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15214,10 +15211,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
@@ -15228,10 +15225,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -15265,22 +15262,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -15314,13 +15311,13 @@
         <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
@@ -15348,10 +15345,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
@@ -15368,10 +15365,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="D6" s="6">
         <v>40</v>
@@ -15388,7 +15385,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="6">
         <v>15</v>
@@ -15405,7 +15402,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="6">
         <v>15</v>
@@ -15422,7 +15419,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
@@ -15439,7 +15436,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="6">
         <v>25</v>
@@ -15475,16 +15472,16 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -15503,16 +15500,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
@@ -15532,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -15546,7 +15543,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -15560,7 +15557,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -15574,7 +15571,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -15588,7 +15585,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -15602,7 +15599,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -15616,7 +15613,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -15654,22 +15651,22 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>233</v>
@@ -15703,19 +15700,19 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>239</v>
